--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="336">
   <si>
     <t>1 … 1</t>
   </si>
@@ -301,12 +301,6 @@
     <t>Reden wijzigen of stoppen gebruik</t>
   </si>
   <si>
-    <t>Behandelervaring</t>
-  </si>
-  <si>
-    <t>Bijwerking</t>
-  </si>
-  <si>
     <t>Toelichting</t>
   </si>
   <si>
@@ -514,9 +508,6 @@
     <t>MedicationStatement.effectivePeriod</t>
   </si>
   <si>
-    <t>MedicationStatement.wasNotTaken</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -538,36 +529,6 @@
     <t>Medication.ingredient.item (Substance.code)</t>
   </si>
   <si>
-    <t>MedicationStatement.dosage.route</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.extension.supportingInformation</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.Extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.repeat.boundsQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.repeat.period(Units)</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.quantityQuantity</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.quantityRange.low</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.quantityRange.high</t>
-  </si>
-  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -580,66 +541,9 @@
     <t>Medication</t>
   </si>
   <si>
-    <t>MedicationStatement.dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.repeat.periodUnits</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.event</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>gForge ticket to add morning, afternoon, evening, night</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.code</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.asNeeded.extension(Quantity)</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rateRatio</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rateRange.low</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.rateRange.high</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>Reference(MedicationDispense)</t>
-  </si>
-  <si>
-    <t>Reference(MedicationOrder).identifier</t>
-  </si>
-  <si>
-    <t>Reference(MedicationDispense).identifier</t>
-  </si>
-  <si>
-    <t>Reference(InformationSource)</t>
-  </si>
-  <si>
     <t>MedicationStatement.reasonNotTaken</t>
   </si>
   <si>
-    <t>MedicationStatement.reasonForUseCodeableCocept.text</t>
-  </si>
-  <si>
     <t>MedicationStatement.note</t>
   </si>
   <si>
@@ -667,12 +571,6 @@
     <t>Medication.product.ingredient.amount.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationOrder) </t>
-  </si>
-  <si>
-    <t>MedicationStatement.status is in FHIR verplicht, maar niet gespecificeerd??</t>
-  </si>
-  <si>
     <t>MedicationOrder.dateWritten</t>
   </si>
   <si>
@@ -856,12 +754,6 @@
     <t>Niet perse een eerdere afspraak..</t>
   </si>
   <si>
-    <t>Opposite..  Boolean is standaard false..</t>
-  </si>
-  <si>
-    <t>In FHIR 0..1, fixed in STU3</t>
-  </si>
-  <si>
     <t>MedicationDispense.quantity</t>
   </si>
   <si>
@@ -886,9 +778,6 @@
     <t>Komt in STU3</t>
   </si>
   <si>
-    <t xml:space="preserve">gForge ticket </t>
-  </si>
-  <si>
     <t>extension</t>
   </si>
   <si>
@@ -1121,6 +1010,33 @@
   </si>
   <si>
     <t>MedicationRequest.supportingInformation(vital-signs)</t>
+  </si>
+  <si>
+    <t>MedicationStatement.taken</t>
+  </si>
+  <si>
+    <t>in FHIR: yes, no, unknown, n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Quantity.code</t>
+  </si>
+  <si>
+    <t>Medication.informationSource(nl-patient, nl-relatedperson, nl-practitioner)</t>
+  </si>
+  <si>
+    <t>MedicationStatement.reasonForCode.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationStatement.DerivedFrom(mp9-MedicatieAfspraak) </t>
+  </si>
+  <si>
+    <t>Reference(mp9-MedicatieAfspraak).identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationStatement.DerivedFrom(mp9-MedicatieVerstrekking) </t>
+  </si>
+  <si>
+    <t>Reference(mp9-MedicatieVertrekking).identifier</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1286,21 +1202,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1308,7 +1209,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1354,9 +1255,6 @@
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1381,7 +1279,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1420,9 +1317,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1451,6 +1345,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1793,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41:K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1811,32 +1719,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1853,13 +1761,13 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>311</v>
+      <c r="K3" s="29" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1867,8 +1775,8 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="38" t="s">
-        <v>349</v>
+      <c r="K4" s="36" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1881,8 +1789,8 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>313</v>
+      <c r="K5" s="35" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1895,8 +1803,8 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>341</v>
+      <c r="K6" s="35" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1909,13 +1817,13 @@
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="37" t="s">
-        <v>342</v>
+      <c r="K7" s="35" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
@@ -1923,13 +1831,13 @@
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>350</v>
+      <c r="K8" s="29" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>3</v>
@@ -1937,20 +1845,20 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>343</v>
+      <c r="K9" s="29" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="32" t="s">
-        <v>351</v>
+      <c r="K10" s="30" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
@@ -1961,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D12" s="3" t="s">
@@ -1973,7 +1881,7 @@
       <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D13" s="5" t="s">
@@ -1983,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E14" s="5" t="s">
@@ -1993,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F15" s="3" t="s">
@@ -2005,7 +1913,7 @@
       <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F16" s="3" t="s">
@@ -2017,7 +1925,7 @@
       <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="31"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F17" s="5" t="s">
@@ -2027,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G18" s="3" t="s">
@@ -2039,7 +1947,7 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G19" s="3" t="s">
@@ -2051,7 +1959,7 @@
       <c r="J19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="31"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11" hidden="1" outlineLevel="1">
       <c r="D20" s="3" t="s">
@@ -2063,7 +1971,7 @@
       <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C21" s="5" t="s">
@@ -2073,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11" hidden="1" outlineLevel="1">
       <c r="D22" s="5" t="s">
@@ -2083,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11" hidden="1" outlineLevel="1">
       <c r="E23" s="3" t="s">
@@ -2095,7 +2003,7 @@
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="31"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" hidden="1" outlineLevel="1">
       <c r="E24" s="3" t="s">
@@ -2107,11 +2015,11 @@
       <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="31"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:11" collapsed="1">
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>22</v>
@@ -2119,20 +2027,20 @@
       <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="31" t="s">
-        <v>352</v>
+      <c r="K25" s="29" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="32" t="s">
-        <v>344</v>
+      <c r="K26" s="30" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -2146,8 +2054,8 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>163</v>
+      <c r="K27" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2172,8 +2080,8 @@
       <c r="J29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>164</v>
+      <c r="K29" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2187,8 +2095,8 @@
       <c r="J30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>165</v>
+      <c r="K30" s="25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2202,8 +2110,8 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>353</v>
+      <c r="K31" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2215,8 +2123,8 @@
         <v>22</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="20" t="s">
-        <v>354</v>
+      <c r="K32" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2239,8 +2147,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="20" t="s">
-        <v>355</v>
+      <c r="K34" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2254,7 +2162,7 @@
       <c r="J35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="20"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="3"/>
@@ -2267,7 +2175,7 @@
       <c r="J36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="20"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3"/>
@@ -2279,7 +2187,7 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="11" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2319,8 +2227,8 @@
       <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="20" t="s">
-        <v>168</v>
+      <c r="K40" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2333,7 +2241,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2347,8 +2255,8 @@
       <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>316</v>
+      <c r="K42" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2362,8 +2270,8 @@
       <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="20" t="s">
-        <v>317</v>
+      <c r="K43" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2377,8 +2285,8 @@
       <c r="J44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="20" t="s">
-        <v>345</v>
+      <c r="K44" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2393,7 +2301,7 @@
         <v>31</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2418,11 +2326,11 @@
       <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="51" t="s">
-        <v>357</v>
+      <c r="K47" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="L47" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2437,13 +2345,13 @@
         <v>31</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -2484,8 +2392,8 @@
       <c r="J52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K52" s="25" t="s">
-        <v>346</v>
+      <c r="K52" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2499,8 +2407,8 @@
       <c r="J53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="25" t="s">
-        <v>347</v>
+      <c r="K53" s="24" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2514,8 +2422,8 @@
       <c r="J54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="25" t="s">
-        <v>348</v>
+      <c r="K54" s="24" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2529,8 +2437,8 @@
       <c r="J55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="25" t="s">
-        <v>179</v>
+      <c r="K55" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2578,7 +2486,7 @@
         <v>52</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2593,7 +2501,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2608,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2623,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2638,7 +2546,7 @@
         <v>31</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2653,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2668,7 +2576,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2682,8 +2590,8 @@
       <c r="J66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="51" t="s">
-        <v>329</v>
+      <c r="K66" s="48" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2695,8 +2603,8 @@
         <v>3</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="20" t="s">
-        <v>330</v>
+      <c r="K67" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2721,8 +2629,8 @@
       <c r="J69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="20" t="s">
-        <v>331</v>
+      <c r="K69" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2736,21 +2644,21 @@
       <c r="J70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="20" t="s">
-        <v>332</v>
+      <c r="K70" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3"/>
       <c r="G71" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="52" t="s">
-        <v>359</v>
+      <c r="K71" s="49" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2765,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2780,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2795,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2808,7 +2716,7 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="11" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2834,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2849,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2864,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2879,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -2893,25 +2801,25 @@
         <v>8</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="53" t="s">
-        <v>363</v>
+      <c r="K82" s="50" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>0</v>
@@ -2923,7 +2831,7 @@
     <row r="84" spans="2:11">
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>3</v>
@@ -2934,20 +2842,20 @@
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="53" t="s">
-        <v>363</v>
+      <c r="K85" s="50" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>0</v>
@@ -2959,7 +2867,7 @@
     <row r="87" spans="2:11">
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>3</v>
@@ -2970,7 +2878,7 @@
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>22</v>
@@ -2979,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2993,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>
@@ -3014,27 +2922,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3046,10 +2954,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3063,7 +2968,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3077,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3090,11 +2995,11 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>161</v>
+      <c r="K5" s="52" t="s">
+        <v>327</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3108,7 +3013,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3122,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3136,7 +3041,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3150,7 +3055,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3164,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3175,8 +3080,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="11" t="s">
-        <v>182</v>
+      <c r="K11" s="30" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3189,8 +3094,8 @@
       <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>163</v>
+      <c r="K12" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3213,8 +3118,8 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>164</v>
+      <c r="K14" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3227,11 +3132,8 @@
       <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>166</v>
+      <c r="K15" s="25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3244,8 +3146,8 @@
       <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>167</v>
+      <c r="K16" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3256,8 +3158,8 @@
         <v>22</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="20" t="s">
-        <v>208</v>
+      <c r="K17" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3278,8 +3180,8 @@
         <v>0</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="20" t="s">
-        <v>209</v>
+      <c r="K19" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3292,7 +3194,7 @@
       <c r="J20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:12">
       <c r="E21" s="3" t="s">
@@ -3304,7 +3206,7 @@
       <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:12">
       <c r="D22" s="5" t="s">
@@ -3314,7 +3216,9 @@
         <v>0</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="E23" s="3" t="s">
@@ -3351,8 +3255,8 @@
       <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>168</v>
+      <c r="K25" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3363,7 +3267,9 @@
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="3" t="s">
@@ -3375,8 +3281,8 @@
       <c r="J27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>172</v>
+      <c r="K27" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3389,11 +3295,11 @@
       <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30">
+      <c r="K28" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
@@ -3403,11 +3309,8 @@
       <c r="J29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" t="s">
-        <v>284</v>
+      <c r="K29" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3421,7 +3324,7 @@
         <v>31</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3444,11 +3347,11 @@
       <c r="J32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>173</v>
+      <c r="K32" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -3462,12 +3365,12 @@
         <v>31</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="3:11">
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
@@ -3505,8 +3408,8 @@
       <c r="J37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>177</v>
+      <c r="K37" s="24" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="3:11">
@@ -3519,8 +3422,8 @@
       <c r="J38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>176</v>
+      <c r="K38" s="24" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="3:11">
@@ -3533,8 +3436,8 @@
       <c r="J39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>178</v>
+      <c r="K39" s="24" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="3:11">
@@ -3547,8 +3450,8 @@
       <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="25" t="s">
-        <v>179</v>
+      <c r="K40" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="3:11">
@@ -3561,8 +3464,8 @@
       <c r="J41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K41" s="25" t="s">
-        <v>180</v>
+      <c r="K41" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="3:11">
@@ -3606,7 +3509,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="3:11">
@@ -3620,7 +3523,7 @@
         <v>52</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:11">
@@ -3634,7 +3537,7 @@
         <v>52</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="3:11">
@@ -3648,10 +3551,10 @@
         <v>8</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11">
       <c r="F49" s="3" t="s">
         <v>63</v>
       </c>
@@ -3662,10 +3565,10 @@
         <v>31</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11">
       <c r="F50" s="3" t="s">
         <v>64</v>
       </c>
@@ -3676,10 +3579,10 @@
         <v>19</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11">
       <c r="F51" s="3" t="s">
         <v>65</v>
       </c>
@@ -3689,14 +3592,11 @@
       <c r="J51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="L51" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12">
+      <c r="K51" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11">
       <c r="F52" s="3" t="s">
         <v>66</v>
       </c>
@@ -3706,14 +3606,11 @@
       <c r="J52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12">
+      <c r="K52" s="48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11">
       <c r="E53" s="5" t="s">
         <v>67</v>
       </c>
@@ -3721,11 +3618,11 @@
         <v>3</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12">
+      <c r="K53" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11">
       <c r="F54" s="5" t="s">
         <v>68</v>
       </c>
@@ -3735,7 +3632,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="5:12">
+    <row r="55" spans="5:11">
       <c r="G55" s="3" t="s">
         <v>8</v>
       </c>
@@ -3745,11 +3642,11 @@
       <c r="J55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12">
+      <c r="K55" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11">
       <c r="G56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3759,23 +3656,23 @@
       <c r="J56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K56" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12">
+      <c r="K56" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11">
       <c r="F57" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12">
+      <c r="K57" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11">
       <c r="G58" s="3" t="s">
         <v>52</v>
       </c>
@@ -3786,10 +3683,10 @@
         <v>31</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11">
       <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
@@ -3800,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11">
       <c r="G60" s="3" t="s">
         <v>62</v>
       </c>
@@ -3814,10 +3711,10 @@
         <v>8</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11">
       <c r="E61" s="5" t="s">
         <v>69</v>
       </c>
@@ -3826,10 +3723,10 @@
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="5:12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11">
       <c r="F62" s="5" t="s">
         <v>70</v>
       </c>
@@ -3839,7 +3736,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="5:12">
+    <row r="63" spans="5:11">
       <c r="G63" s="3" t="s">
         <v>56</v>
       </c>
@@ -3850,10 +3747,10 @@
         <v>52</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="5:12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11">
       <c r="G64" s="3" t="s">
         <v>57</v>
       </c>
@@ -3864,7 +3761,7 @@
         <v>52</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>193</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3878,7 +3775,7 @@
         <v>52</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3892,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3906,7 +3803,7 @@
         <v>8</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3917,23 +3814,23 @@
         <v>3</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="16" customFormat="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19" t="s">
+      <c r="K68" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" s="51" customFormat="1">
+      <c r="B69" s="54"/>
+      <c r="C69" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="17" t="s">
+      <c r="I69" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="23" t="s">
-        <v>198</v>
+      <c r="K69" s="56" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3944,35 +3841,35 @@
         <v>3</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="16" customFormat="1">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19" t="s">
+      <c r="K70" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="51" customFormat="1">
+      <c r="B71" s="54"/>
+      <c r="C71" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="17" t="s">
+      <c r="I71" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="16" customFormat="1">
-      <c r="B72" s="16" t="s">
+      <c r="K71" s="56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="51" customFormat="1">
+      <c r="B72" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="23" t="s">
-        <v>200</v>
+      <c r="I72" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="55"/>
+      <c r="K72" s="56" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1" outlineLevel="2">
@@ -4102,8 +3999,8 @@
         <v>0</v>
       </c>
       <c r="J83" s="15"/>
-      <c r="K83" s="23" t="s">
-        <v>181</v>
+      <c r="K83" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" outlineLevel="4">
@@ -4116,7 +4013,7 @@
       <c r="J84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K84" s="23"/>
+      <c r="K84" s="22"/>
     </row>
     <row r="85" spans="1:11" hidden="1" outlineLevel="4">
       <c r="D85" s="5" t="s">
@@ -4126,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="23"/>
+      <c r="K85" s="22"/>
     </row>
     <row r="86" spans="1:11" hidden="1" outlineLevel="4">
       <c r="E86" s="5" t="s">
@@ -4136,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="23"/>
+      <c r="K86" s="22"/>
     </row>
     <row r="87" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F87" s="3" t="s">
@@ -4148,7 +4045,7 @@
       <c r="J87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K87" s="23"/>
+      <c r="K87" s="22"/>
     </row>
     <row r="88" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F88" s="3" t="s">
@@ -4160,7 +4057,7 @@
       <c r="J88" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K88" s="23"/>
+      <c r="K88" s="22"/>
     </row>
     <row r="89" spans="1:11" hidden="1" outlineLevel="4">
       <c r="E89" s="5" t="s">
@@ -4170,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="23"/>
+      <c r="K89" s="22"/>
     </row>
     <row r="90" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F90" s="3" t="s">
@@ -4182,7 +4079,7 @@
       <c r="J90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="23"/>
+      <c r="K90" s="22"/>
     </row>
     <row r="91" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F91" s="3" t="s">
@@ -4194,7 +4091,7 @@
       <c r="J91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="23"/>
+      <c r="K91" s="22"/>
     </row>
     <row r="92" spans="1:11" hidden="1" outlineLevel="4">
       <c r="D92" s="3" t="s">
@@ -4207,7 +4104,7 @@
       <c r="J92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K92" s="23"/>
+      <c r="K92" s="22"/>
     </row>
     <row r="93" spans="1:11" hidden="1" outlineLevel="4">
       <c r="D93" s="5" t="s">
@@ -4217,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="23"/>
+      <c r="K93" s="22"/>
     </row>
     <row r="94" spans="1:11" hidden="1" outlineLevel="4">
       <c r="E94" s="5" t="s">
@@ -4227,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="2"/>
-      <c r="K94" s="23"/>
+      <c r="K94" s="22"/>
     </row>
     <row r="95" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F95" s="3" t="s">
@@ -4239,7 +4136,7 @@
       <c r="J95" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="23"/>
+      <c r="K95" s="22"/>
     </row>
     <row r="96" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F96" s="3" t="s">
@@ -4251,7 +4148,7 @@
       <c r="J96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="23"/>
+      <c r="K96" s="22"/>
     </row>
     <row r="97" spans="1:11" hidden="1" outlineLevel="2">
       <c r="A97" s="16"/>
@@ -4268,8 +4165,8 @@
         <v>0</v>
       </c>
       <c r="J97" s="17"/>
-      <c r="K97" s="23" t="s">
-        <v>181</v>
+      <c r="K97" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" outlineLevel="3">
@@ -4462,11 +4359,9 @@
         <v>4</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="L114" s="28" t="s">
-        <v>276</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="L114" s="53"/>
     </row>
     <row r="115" spans="2:12">
       <c r="B115" s="3" t="s">
@@ -4479,7 +4374,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -4490,38 +4385,10 @@
         <v>3</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K116" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="2:12">
-      <c r="B117" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K117" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12">
-      <c r="B118" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K118" s="11" t="s">
-        <v>203</v>
+      <c r="K116" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4535,6 +4402,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4564,50 +4432,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="31" t="s">
-        <v>218</v>
+      <c r="K2" s="29" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="31"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="5" t="s">
@@ -4618,7 +4486,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="11" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.9" customHeight="1">
@@ -4631,8 +4499,8 @@
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>163</v>
+      <c r="K5" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4643,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" customHeight="1">
       <c r="E7" s="3" t="s">
@@ -4655,8 +4523,8 @@
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>164</v>
+      <c r="K7" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1">
@@ -4669,11 +4537,11 @@
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>165</v>
+      <c r="K8" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1">
@@ -4686,8 +4554,8 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>167</v>
+      <c r="K9" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4698,8 +4566,8 @@
         <v>16</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="20" t="s">
-        <v>208</v>
+      <c r="K10" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4710,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="20" t="s">
-        <v>209</v>
+      <c r="K11" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
@@ -4725,7 +4593,7 @@
     </row>
     <row r="13" spans="1:14" ht="13.9" customHeight="1">
       <c r="F13" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
@@ -4743,13 +4611,13 @@
       <c r="J14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>168</v>
+      <c r="K14" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>3</v>
@@ -4758,18 +4626,18 @@
         <v>8</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="N15" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>22</v>
@@ -4777,19 +4645,19 @@
       <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>238</v>
+      <c r="K16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>3</v>
@@ -4798,18 +4666,18 @@
         <v>19</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>239</v>
+        <v>187</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>3</v>
@@ -4817,19 +4685,19 @@
       <c r="J18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>240</v>
+      <c r="K18" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
@@ -4837,30 +4705,30 @@
       <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="M19" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>235</v>
+      <c r="K19" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="31"/>
+      <c r="K20" s="29"/>
       <c r="M20" s="18" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -4871,8 +4739,8 @@
         <v>3</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="31" t="s">
-        <v>224</v>
+      <c r="K21" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:14" hidden="1" outlineLevel="1">
@@ -4886,7 +4754,7 @@
       <c r="J22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C23" s="5"/>
@@ -4897,7 +4765,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C24" s="5"/>
@@ -4908,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="31"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C25" s="3"/>
@@ -4921,7 +4789,7 @@
       <c r="J25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="31"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C26" s="3"/>
@@ -4934,7 +4802,7 @@
       <c r="J26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C27" s="3"/>
@@ -4947,7 +4815,7 @@
       <c r="J27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="31"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C28" s="3"/>
@@ -4960,7 +4828,7 @@
       <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="2:14" hidden="1" outlineLevel="1">
       <c r="E29" s="5" t="s">
@@ -4970,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="31"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="2:14" hidden="1" outlineLevel="1">
       <c r="E30" s="3" t="s">
@@ -4982,7 +4850,7 @@
       <c r="J30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="2:14" hidden="1" outlineLevel="1">
       <c r="E31" s="3" t="s">
@@ -4994,7 +4862,7 @@
       <c r="J31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="31"/>
+      <c r="K31" s="29"/>
     </row>
     <row r="32" spans="2:14" hidden="1" outlineLevel="1">
       <c r="E32" s="5" t="s">
@@ -5004,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="31"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="3:11" hidden="1" outlineLevel="1">
       <c r="E33" s="3" t="s">
@@ -5016,7 +4884,7 @@
       <c r="J33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="31"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="3:11" hidden="1" outlineLevel="1">
       <c r="E34" s="3" t="s">
@@ -5028,7 +4896,7 @@
       <c r="J34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="31"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="3:11" hidden="1" outlineLevel="1">
       <c r="D35" s="5" t="s">
@@ -5038,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="31"/>
+      <c r="K35" s="29"/>
     </row>
     <row r="36" spans="3:11" hidden="1" outlineLevel="1">
       <c r="E36" s="5" t="s">
@@ -5048,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="31"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" spans="3:11" hidden="1" outlineLevel="1">
       <c r="F37" s="3" t="s">
@@ -5060,7 +4928,7 @@
       <c r="J37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="3:11" hidden="1" outlineLevel="1">
       <c r="F38" s="3" t="s">
@@ -5072,18 +4940,18 @@
       <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="31"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="3:11" ht="15" customHeight="1" collapsed="1">
       <c r="C39" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="31" t="s">
-        <v>225</v>
+      <c r="K39" s="29" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="3:11" hidden="1" outlineLevel="2">
@@ -5094,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="31"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E41" s="3" t="s">
@@ -5106,7 +4974,7 @@
       <c r="J41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="31"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E42" s="3" t="s">
@@ -5118,7 +4986,7 @@
       <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="31"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E43" s="3" t="s">
@@ -5130,7 +4998,7 @@
       <c r="J43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="31"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E44" s="3" t="s">
@@ -5142,7 +5010,7 @@
       <c r="J44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E45" s="5" t="s">
@@ -5152,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="31"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="3:11" hidden="1" outlineLevel="2">
       <c r="F46" s="3" t="s">
@@ -5164,7 +5032,7 @@
       <c r="J46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="31"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="3:11" hidden="1" outlineLevel="2">
       <c r="F47" s="3" t="s">
@@ -5176,7 +5044,7 @@
       <c r="J47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="31"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="3:11" hidden="1" outlineLevel="2">
       <c r="E48" s="5" t="s">
@@ -5186,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="31"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="3:12" hidden="1" outlineLevel="2">
       <c r="E49" s="3" t="s">
@@ -5198,7 +5066,7 @@
       <c r="J49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="31"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="3:12" hidden="1" outlineLevel="2">
       <c r="E50" s="3" t="s">
@@ -5210,7 +5078,7 @@
       <c r="J50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="31"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="3:12" hidden="1" outlineLevel="2">
       <c r="D51" s="3" t="s">
@@ -5222,7 +5090,7 @@
       <c r="J51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="3:12" hidden="1" outlineLevel="2">
       <c r="D52" s="3" t="s">
@@ -5234,7 +5102,7 @@
       <c r="J52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="31"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="53" spans="3:12" hidden="1" outlineLevel="2">
       <c r="D53" s="3" t="s">
@@ -5246,42 +5114,42 @@
       <c r="J53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="31"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="54" spans="3:12" collapsed="1">
       <c r="C54" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="39" t="s">
-        <v>226</v>
+      <c r="K54" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="L54" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="3:12" ht="12.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D55" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="31"/>
+      <c r="K55" s="29"/>
     </row>
     <row r="56" spans="3:12" hidden="1" outlineLevel="1">
       <c r="E56" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="31"/>
+      <c r="K56" s="29"/>
     </row>
     <row r="57" spans="3:12" hidden="1" outlineLevel="1">
       <c r="F57" s="5" t="s">
@@ -5291,7 +5159,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="31"/>
+      <c r="K57" s="29"/>
     </row>
     <row r="58" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G58" s="3" t="s">
@@ -5303,7 +5171,7 @@
       <c r="J58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="31"/>
+      <c r="K58" s="29"/>
     </row>
     <row r="59" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G59" s="3" t="s">
@@ -5315,7 +5183,7 @@
       <c r="J59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="31"/>
+      <c r="K59" s="29"/>
     </row>
     <row r="60" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G60" s="3" t="s">
@@ -5327,7 +5195,7 @@
       <c r="J60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="31"/>
+      <c r="K60" s="29"/>
     </row>
     <row r="61" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G61" s="3" t="s">
@@ -5339,7 +5207,7 @@
       <c r="J61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="31"/>
+      <c r="K61" s="29"/>
     </row>
     <row r="62" spans="3:12" hidden="1" outlineLevel="1">
       <c r="F62" s="5" t="s">
@@ -5349,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="31"/>
+      <c r="K62" s="29"/>
     </row>
     <row r="63" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G63" s="3" t="s">
@@ -5361,7 +5229,7 @@
       <c r="J63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="29"/>
     </row>
     <row r="64" spans="3:12" hidden="1" outlineLevel="1">
       <c r="G64" s="3" t="s">
@@ -5373,7 +5241,7 @@
       <c r="J64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K64" s="31"/>
+      <c r="K64" s="29"/>
     </row>
     <row r="65" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F65" s="5" t="s">
@@ -5383,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="K65" s="31"/>
+      <c r="K65" s="29"/>
     </row>
     <row r="66" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G66" s="3" t="s">
@@ -5395,7 +5263,7 @@
       <c r="J66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="31"/>
+      <c r="K66" s="29"/>
     </row>
     <row r="67" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G67" s="3" t="s">
@@ -5407,31 +5275,31 @@
       <c r="J67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="31"/>
+      <c r="K67" s="29"/>
     </row>
     <row r="68" spans="2:11" hidden="1" outlineLevel="1">
       <c r="E68" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="31"/>
+      <c r="K68" s="29"/>
     </row>
     <row r="69" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F69" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="31"/>
+      <c r="K69" s="29"/>
     </row>
     <row r="70" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G70" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>3</v>
@@ -5439,11 +5307,11 @@
       <c r="J70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="31"/>
+      <c r="K70" s="29"/>
     </row>
     <row r="71" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G71" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>3</v>
@@ -5451,21 +5319,21 @@
       <c r="J71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="31"/>
+      <c r="K71" s="29"/>
     </row>
     <row r="72" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F72" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="31"/>
+      <c r="K72" s="29"/>
     </row>
     <row r="73" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G73" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>3</v>
@@ -5473,11 +5341,11 @@
       <c r="J73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="31"/>
+      <c r="K73" s="29"/>
     </row>
     <row r="74" spans="2:11" ht="0.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="G74" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>3</v>
@@ -5485,11 +5353,11 @@
       <c r="J74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="31"/>
+      <c r="K74" s="29"/>
     </row>
     <row r="75" spans="2:11" collapsed="1">
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>3</v>
@@ -5497,8 +5365,8 @@
       <c r="J75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="31" t="s">
-        <v>223</v>
+      <c r="K75" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -5538,45 +5406,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>242</v>
+      <c r="K2" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5589,16 +5457,16 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>243</v>
+      <c r="K3" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -5606,11 +5474,11 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>286</v>
+      <c r="K4" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5623,11 +5491,11 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>286</v>
+      <c r="K5" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5640,11 +5508,11 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>286</v>
+      <c r="K6" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5657,16 +5525,16 @@
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>286</v>
+      <c r="K7" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
@@ -5674,32 +5542,32 @@
       <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>310</v>
+      <c r="K8" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>273</v>
       </c>
       <c r="M8" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>282</v>
+      <c r="K9" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>246</v>
       </c>
       <c r="M9" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5710,11 +5578,11 @@
         <v>3</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>259</v>
+      <c r="K10" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5725,8 +5593,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="3" t="s">
@@ -5738,8 +5606,8 @@
       <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:13">
       <c r="E13" s="3" t="s">
@@ -5751,12 +5619,12 @@
       <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>3</v>
@@ -5764,16 +5632,16 @@
       <c r="J14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>282</v>
+      <c r="K14" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
@@ -5789,10 +5657,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5805,11 +5673,11 @@
       <c r="J17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>163</v>
+      <c r="K17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5833,11 +5701,11 @@
       <c r="J19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>164</v>
+      <c r="K19" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5850,11 +5718,11 @@
       <c r="J20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>165</v>
+      <c r="K20" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5867,11 +5735,11 @@
       <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="47" t="s">
-        <v>167</v>
+      <c r="K21" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5882,11 +5750,11 @@
         <v>16</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" s="47" t="s">
-        <v>208</v>
+      <c r="K22" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5897,11 +5765,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>209</v>
+      <c r="K23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5923,8 +5791,8 @@
       <c r="J25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12">
       <c r="G26" s="3" t="s">
@@ -5936,8 +5804,8 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12">
       <c r="F27" s="5" t="s">
@@ -5986,10 +5854,10 @@
       <c r="J30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="20"/>
+      <c r="K30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="5"/>
@@ -6014,11 +5882,11 @@
       <c r="J32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="L32" s="47" t="s">
-        <v>287</v>
+      <c r="K32" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" s="44" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -6032,11 +5900,11 @@
       <c r="J33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="L33" s="47" t="s">
-        <v>288</v>
+      <c r="K33" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" s="44" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30">
@@ -6050,11 +5918,11 @@
       <c r="J34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="L34" s="47" t="s">
-        <v>289</v>
+      <c r="K34" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6069,10 +5937,10 @@
         <v>31</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6098,11 +5966,11 @@
       <c r="J37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>291</v>
+      <c r="K37" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -6117,16 +5985,16 @@
         <v>31</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>292</v>
+        <v>284</v>
+      </c>
+      <c r="L38" s="42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>22</v>
@@ -6170,11 +6038,11 @@
       <c r="J42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="L42" s="48" t="s">
-        <v>293</v>
+      <c r="K42" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -6188,11 +6056,11 @@
       <c r="J43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K43" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="L43" s="48" t="s">
-        <v>294</v>
+      <c r="K43" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="L43" s="45" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6206,11 +6074,11 @@
       <c r="J44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>295</v>
+      <c r="K44" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6224,11 +6092,11 @@
       <c r="J45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>179</v>
+      <c r="K45" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6242,11 +6110,11 @@
       <c r="J46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>180</v>
+      <c r="K46" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" s="45" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6297,13 +6165,13 @@
         <v>52</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="L50" s="45" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>259</v>
       </c>
       <c r="M50" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6318,10 +6186,10 @@
         <v>52</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="L51" s="45" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="L51" s="42" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -6336,10 +6204,10 @@
         <v>52</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="L52" s="45" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -6354,10 +6222,10 @@
         <v>8</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="L53" s="45" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="L53" s="42" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -6372,10 +6240,10 @@
         <v>31</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="L54" s="45" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="L54" s="42" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -6390,10 +6258,10 @@
         <v>19</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="L55" s="45" t="s">
-        <v>299</v>
+        <v>291</v>
+      </c>
+      <c r="L55" s="42" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -6407,11 +6275,11 @@
       <c r="J56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>162</v>
+      <c r="K56" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -6425,11 +6293,11 @@
       <c r="J57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="L57" s="42" t="s">
-        <v>300</v>
+      <c r="K57" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L57" s="40" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30">
@@ -6441,11 +6309,11 @@
         <v>3</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="L58" s="47" t="s">
-        <v>301</v>
+      <c r="K58" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="L58" s="44" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6458,7 +6326,7 @@
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="46"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:13" ht="30">
       <c r="A60" s="3"/>
@@ -6471,11 +6339,11 @@
       <c r="J60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="L60" s="47" t="s">
-        <v>302</v>
+      <c r="K60" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="L60" s="44" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="30">
@@ -6489,27 +6357,27 @@
       <c r="J61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="L61" s="47" t="s">
-        <v>303</v>
+      <c r="K61" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="L61" s="44" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="L62" s="26" t="s">
-        <v>304</v>
+      <c r="K62" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -6524,10 +6392,10 @@
         <v>31</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6542,10 +6410,10 @@
         <v>8</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6560,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6576,10 +6444,10 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="L66" s="45" t="s">
-        <v>305</v>
+        <v>297</v>
+      </c>
+      <c r="L66" s="42" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6592,7 +6460,7 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="46"/>
+      <c r="L67" s="43"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="3"/>
@@ -6606,10 +6474,10 @@
         <v>52</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="L68" s="45" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="L68" s="42" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -6624,10 +6492,10 @@
         <v>52</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="L69" s="45" t="s">
-        <v>307</v>
+        <v>299</v>
+      </c>
+      <c r="L69" s="42" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -6642,10 +6510,10 @@
         <v>52</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L70" s="45" t="s">
-        <v>308</v>
+        <v>300</v>
+      </c>
+      <c r="L70" s="42" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -6660,10 +6528,10 @@
         <v>8</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L71" s="45" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="L71" s="42" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -6678,16 +6546,16 @@
         <v>8</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L72" s="45" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="L72" s="42" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>22</v>
@@ -6695,16 +6563,16 @@
       <c r="J73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="L73" s="45" t="s">
-        <v>247</v>
+      <c r="K73" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L73" s="42" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="B74" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>0</v>
@@ -6721,14 +6589,14 @@
       <c r="J75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="22" t="s">
-        <v>339</v>
+      <c r="K75" s="21" t="s">
+        <v>302</v>
       </c>
       <c r="L75" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="M75" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6764,39 +6632,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="31" t="s">
-        <v>242</v>
+      <c r="K2" s="29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6809,13 +6677,13 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>243</v>
+      <c r="K3" s="29" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -6823,13 +6691,13 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>244</v>
+      <c r="K4" s="29" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>3</v>
@@ -6837,24 +6705,24 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="39" t="s">
-        <v>282</v>
+      <c r="K5" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="39" t="s">
-        <v>251</v>
+      <c r="K6" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6865,8 +6733,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="31" t="s">
-        <v>228</v>
+      <c r="K7" s="29" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6879,8 +6747,8 @@
       <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>229</v>
+      <c r="K8" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6893,20 +6761,20 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>230</v>
+      <c r="K9" s="29" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="31" t="s">
-        <v>277</v>
+      <c r="K10" s="29" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6919,8 +6787,8 @@
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>278</v>
+      <c r="K11" s="29" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6933,19 +6801,19 @@
       <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>279</v>
+      <c r="K12" s="29" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:12" outlineLevel="1">
       <c r="C14" s="5" t="s">
@@ -6956,7 +6824,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:12" outlineLevel="1">
@@ -6969,8 +6837,8 @@
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>163</v>
+      <c r="K15" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" outlineLevel="1">
@@ -6981,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="2:12" outlineLevel="1">
       <c r="E17" s="3" t="s">
@@ -6993,8 +6861,8 @@
       <c r="J17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>164</v>
+      <c r="K17" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:12" outlineLevel="1">
@@ -7007,8 +6875,8 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="41" t="s">
-        <v>165</v>
+      <c r="K18" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:12" outlineLevel="1">
@@ -7021,8 +6889,8 @@
       <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="20" t="s">
-        <v>167</v>
+      <c r="K19" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:12" outlineLevel="1">
@@ -7033,8 +6901,8 @@
         <v>16</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="20" t="s">
-        <v>208</v>
+      <c r="K20" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:12" outlineLevel="1">
@@ -7045,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:12" outlineLevel="1">
       <c r="G22" s="5" t="s">
@@ -7055,8 +6923,8 @@
         <v>0</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="20" t="s">
-        <v>209</v>
+      <c r="K22" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:12" outlineLevel="1">
@@ -7069,8 +6937,8 @@
       <c r="J23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>210</v>
+      <c r="K23" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:12" outlineLevel="1">
@@ -7083,8 +6951,8 @@
       <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>211</v>
+      <c r="K24" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="2:12" outlineLevel="1">
@@ -7096,7 +6964,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="11" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:12" outlineLevel="1">
@@ -7110,7 +6978,7 @@
         <v>31</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:12" outlineLevel="1">
@@ -7124,7 +6992,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:12" outlineLevel="1">
@@ -7137,13 +7005,13 @@
       <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>250</v>
+      <c r="K28" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>3</v>
@@ -7151,16 +7019,16 @@
       <c r="J29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>246</v>
+      <c r="K29" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>3</v>
@@ -7168,13 +7036,13 @@
       <c r="J30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>248</v>
+      <c r="K30" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>3</v>
@@ -7182,16 +7050,16 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="41" t="s">
-        <v>272</v>
+      <c r="K31" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>22</v>
@@ -7199,20 +7067,20 @@
       <c r="J32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="31" t="s">
-        <v>247</v>
+      <c r="K32" s="29" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="31" t="s">
-        <v>249</v>
+      <c r="K33" s="29" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -7225,8 +7093,8 @@
       <c r="J34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="31" t="s">
-        <v>215</v>
+      <c r="K34" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7259,39 +7127,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="31" t="s">
-        <v>253</v>
+      <c r="K2" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7304,13 +7172,13 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>215</v>
+      <c r="K3" s="29" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -7318,8 +7186,8 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="31" t="s">
-        <v>214</v>
+      <c r="K4" s="29" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7330,8 +7198,8 @@
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="31" t="s">
-        <v>263</v>
+      <c r="K5" s="29" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" outlineLevel="1">
@@ -7342,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D7" s="3" t="s">
@@ -7354,7 +7222,7 @@
       <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="31"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:12" hidden="1" outlineLevel="1">
       <c r="C8" s="5" t="s">
@@ -7364,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D9" s="5" t="s">
@@ -7374,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E10" s="3" t="s">
@@ -7386,7 +7254,7 @@
       <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E11" s="3" t="s">
@@ -7398,7 +7266,7 @@
       <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="31"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D12" s="5" t="s">
@@ -7408,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E13" s="3" t="s">
@@ -7420,7 +7288,7 @@
       <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E14" s="3" t="s">
@@ -7432,7 +7300,7 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:12" hidden="1" outlineLevel="1">
       <c r="C15" s="3" t="s">
@@ -7444,18 +7312,18 @@
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:12" collapsed="1">
       <c r="B16" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="31" t="s">
-        <v>256</v>
+      <c r="K16" s="29" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7468,8 +7336,8 @@
       <c r="J17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>264</v>
+      <c r="K17" s="29" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7482,13 +7350,13 @@
       <c r="J18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="31" t="s">
-        <v>265</v>
+      <c r="K18" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
@@ -7496,13 +7364,13 @@
       <c r="J19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>266</v>
+      <c r="K19" s="29" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>0</v>
@@ -7519,7 +7387,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -7532,8 +7400,8 @@
       <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>163</v>
+      <c r="K22" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -7556,8 +7424,8 @@
       <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>164</v>
+      <c r="K24" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -7570,8 +7438,8 @@
       <c r="J25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="41" t="s">
-        <v>165</v>
+      <c r="K25" s="39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -7584,8 +7452,8 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>167</v>
+      <c r="K26" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -7596,8 +7464,8 @@
         <v>16</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="20" t="s">
-        <v>208</v>
+      <c r="K27" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7618,8 +7486,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="20" t="s">
-        <v>209</v>
+      <c r="K29" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7632,8 +7500,8 @@
       <c r="J30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>210</v>
+      <c r="K30" s="19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -7646,8 +7514,8 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>211</v>
+      <c r="K31" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -7659,7 +7527,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="11" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -7673,7 +7541,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -7687,7 +7555,7 @@
         <v>8</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -7700,13 +7568,13 @@
       <c r="J35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="20" t="s">
-        <v>168</v>
+      <c r="K35" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>3</v>
@@ -7716,7 +7584,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="C37" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>3</v>
@@ -7724,27 +7592,27 @@
       <c r="J37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="31" t="s">
-        <v>254</v>
+      <c r="K37" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="C38" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>257</v>
+        <v>150</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
@@ -7752,20 +7620,20 @@
       <c r="J39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="31" t="s">
-        <v>255</v>
+      <c r="K39" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="5" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="39" t="s">
-        <v>267</v>
+      <c r="K40" s="37" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7776,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="40"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11">
       <c r="D42" s="3" t="s">
@@ -7788,8 +7656,8 @@
       <c r="J42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="39" t="s">
-        <v>229</v>
+      <c r="K42" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -7802,13 +7670,13 @@
       <c r="J43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="39" t="s">
-        <v>230</v>
+      <c r="K43" s="37" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
@@ -7816,13 +7684,13 @@
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="39" t="s">
-        <v>268</v>
+      <c r="K44" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>22</v>
@@ -7830,8 +7698,8 @@
       <c r="J45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="38" t="s">
-        <v>216</v>
+      <c r="K45" s="36" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="356">
   <si>
     <t>1 … 1</t>
   </si>
@@ -388,9 +388,6 @@
     <t> Patiënt</t>
   </si>
   <si>
-    <t> Mantelzorger</t>
-  </si>
-  <si>
     <t> Contactpersoon</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>MedicationStatement.effectivePeriod</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
     <t>Medication.code.coding</t>
   </si>
   <si>
@@ -520,15 +514,9 @@
     <t>Medication.extension.description</t>
   </si>
   <si>
-    <t>Nog verder uit te werken</t>
-  </si>
-  <si>
     <t>Medication.product.form</t>
   </si>
   <si>
-    <t>Medication.ingredient.item (Substance.code)</t>
-  </si>
-  <si>
     <t>Quantity.code</t>
   </si>
   <si>
@@ -571,24 +559,15 @@
     <t>Medication.product.ingredient.amount.code</t>
   </si>
   <si>
-    <t>MedicationOrder.dateWritten</t>
-  </si>
-  <si>
     <t>MedicationOrder.identifier</t>
   </si>
   <si>
-    <t>MedicationOrder.note</t>
-  </si>
-  <si>
     <t>MedicationAdministration.status</t>
   </si>
   <si>
     <t>MedicationAdministration</t>
   </si>
   <si>
-    <t>MedicationReference(Medication)</t>
-  </si>
-  <si>
     <t>MedicationAdministration.reasonNotGiven</t>
   </si>
   <si>
@@ -601,18 +580,6 @@
     <t>MedicationAdministration.note</t>
   </si>
   <si>
-    <t>MedicationAdministration.practitioner(Practitioner)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.practitioner(Patient)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.practitioner(Practioner(MantelZorger))</t>
-  </si>
-  <si>
-    <t>Nog te maken</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -667,9 +634,6 @@
     <t>MedicationDispense.daysSupply</t>
   </si>
   <si>
-    <t>Days…</t>
-  </si>
-  <si>
     <t>MedicationDispense.note</t>
   </si>
   <si>
@@ -688,57 +652,9 @@
     <t>Extension in DSTU2, added in STU3</t>
   </si>
   <si>
-    <t>MedicationOrder</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.validityPeriod.start</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.validityPeriod.end</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.quantity</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.expectedSupplyDuration</t>
-  </si>
-  <si>
-    <t>status?</t>
-  </si>
-  <si>
-    <t>Reference(Organization)</t>
-  </si>
-  <si>
     <t>Vertrekker? Of toediening? Of Voorschrijver?</t>
   </si>
   <si>
-    <t>extension.Quantity.value</t>
-  </si>
-  <si>
-    <t>extension.Quantity.code</t>
-  </si>
-  <si>
-    <t>MedicationOrder.prescriber.reference(Practitioner)</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.quantity.value</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.quantity.code</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.numberOfRepeatsAllowed</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.extension (Reference(Organization))</t>
-  </si>
-  <si>
-    <t>MedicationOrder.dispenseRequest.extension (string)</t>
-  </si>
-  <si>
-    <t>extension.Quantity.name</t>
-  </si>
-  <si>
     <t>MedicationStatement.effectivePeriod.stop</t>
   </si>
   <si>
@@ -775,39 +691,18 @@
     <t>gForge goedgekeurd</t>
   </si>
   <si>
-    <t>Komt in STU3</t>
-  </si>
-  <si>
-    <t>extension</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.text</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstructions.route</t>
   </si>
   <si>
-    <t>MedicationDispense.dosageInstructions.extension.supportingInformation</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.timing.repeat.period(Units)</t>
   </si>
   <si>
-    <t>MedicationDispense.dosageInstructions.Extension</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.timing.repeat.boundsQuantity</t>
   </si>
   <si>
-    <t>MedicationDispense.dosageInstructions.doseRange.low</t>
-  </si>
-  <si>
-    <t>MedicationDispense.dosageInstructions.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationDispense.dosageInstructions.doseRange.high</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.timing.repeat.frequency</t>
   </si>
   <si>
@@ -832,9 +727,6 @@
     <t>MedicationDispense.dosageInstructions.asNeededCodeableConcept.text</t>
   </si>
   <si>
-    <t>MedicationDispense.dosageInstructions.asNeeded.extension(Quantity)</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.rate[x]</t>
   </si>
   <si>
@@ -847,12 +739,6 @@
     <t>MedicationDispense.dosageInstructions.rateRange.high</t>
   </si>
   <si>
-    <t>MedicationStatement.AuthorizingPrescription</t>
-  </si>
-  <si>
-    <t>status (canceled or stopped)</t>
-  </si>
-  <si>
     <t>MedicationRequest.identifier</t>
   </si>
   <si>
@@ -862,39 +748,18 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.dateEnded</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reasonCodeableConcept.text</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.text</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstructions.route</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.extension.supportingInformation</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.timing.repeat.period(Units)</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.Extension</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.timing.repeat.boundsQuantity</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.doseRange.low</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstructions.doseQuantity</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstructions.doseRange.high</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.timing.repeat.frequency</t>
   </si>
   <si>
@@ -919,9 +784,6 @@
     <t>MedicationRequest.dosageInstructions.asNeededCodeableConcept.text</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.asNeeded.extension(Quantity)</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.rate[x]</t>
   </si>
   <si>
@@ -937,9 +799,6 @@
     <t>MedicationRequest.note</t>
   </si>
   <si>
-    <t>MedicationRequest.priorPrescriptionReference</t>
-  </si>
-  <si>
     <t>MedicationRequest</t>
   </si>
   <si>
@@ -1037,13 +896,214 @@
   </si>
   <si>
     <t>Reference(mp9-MedicatieVertrekking).identifier</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.route</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.additionalInstructions</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.period(Units)</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.sequence</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.boundsQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.quantityRange.low</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.quantityQuantity</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.quantityRange.high</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.periodUnits</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.event</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.dayOfWeek</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.asNeededCodeableConcept</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.asNeededCodeableConcept.code</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.rate[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.rateRange.low</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.rateRatio</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.rateRange.high</t>
+  </si>
+  <si>
+    <t>MedicationStatement.medicationReference(Medication)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.MedicationReference(Medication)</t>
+  </si>
+  <si>
+    <t>AfwijkendeToedining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0….1 </t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension</t>
+  </si>
+  <si>
+    <t>DubbeleControleUitgevoerd</t>
+  </si>
+  <si>
+    <t>0…..1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.doubleCheck</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor(nl-core-Patient)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.actor(nl-core-Practitioner)</t>
+  </si>
+  <si>
+    <t>geannuleerd indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AanvullendeInformatie</t>
+  </si>
+  <si>
+    <t>Aanvullende Informatie</t>
+  </si>
+  <si>
+    <t>0 …1</t>
+  </si>
+  <si>
+    <t>Aanvullende wensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 … 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MedicationDispense.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MedicationDispense.performer.Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Reference(nl-core-Organization)</t>
+  </si>
+  <si>
+    <t>MedicationDispense.AuthorizingPrescription</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.timing.dayOfWeek</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medicationReference(Medication)</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.additionalInstructions</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.sequence</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.quantityRange.low</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.quantityQuantity</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.quantityRange.high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MedicationDispense.status (canceled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sMedicationDispense.tatus (on-hold or stopped)</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.quantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.quantity.value</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.quantity.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.validityPeriod.start</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.validityPeriod.end</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.extension (string)</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester.agent(Practitioner)</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dispenseRequest.performer(Reference(nl-core-organization))</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension (string)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1180,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1174,7 +1247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1202,6 +1275,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1209,7 +1308,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1226,9 +1325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1258,16 +1354,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,7 +1369,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1308,32 +1397,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1359,6 +1424,26 @@
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -1701,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41:K81"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1719,18 +1804,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
@@ -1739,7 +1824,7 @@
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1761,8 +1846,8 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>274</v>
+      <c r="K3" s="25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1775,8 +1860,8 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>312</v>
+      <c r="K4" s="32" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1789,8 +1874,8 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="35" t="s">
-        <v>276</v>
+      <c r="K5" s="31" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1803,8 +1888,8 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>304</v>
+      <c r="K6" s="31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1817,8 +1902,8 @@
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>305</v>
+      <c r="K7" s="31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1831,8 +1916,8 @@
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>313</v>
+      <c r="K8" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1845,8 +1930,8 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>306</v>
+      <c r="K9" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1857,8 +1942,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="30" t="s">
-        <v>314</v>
+      <c r="K10" s="26" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
@@ -1869,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D12" s="3" t="s">
@@ -1881,7 +1966,7 @@
       <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D13" s="5" t="s">
@@ -1891,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E14" s="5" t="s">
@@ -1901,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="29"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F15" s="3" t="s">
@@ -1913,7 +1998,7 @@
       <c r="J15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:12" hidden="1" outlineLevel="1">
       <c r="F16" s="3" t="s">
@@ -1925,7 +2010,7 @@
       <c r="J16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F17" s="5" t="s">
@@ -1935,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="29"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G18" s="3" t="s">
@@ -1947,7 +2032,7 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G19" s="3" t="s">
@@ -1959,7 +2044,7 @@
       <c r="J19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:11" hidden="1" outlineLevel="1">
       <c r="D20" s="3" t="s">
@@ -1971,7 +2056,7 @@
       <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="29"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:11" hidden="1" outlineLevel="1">
       <c r="C21" s="5" t="s">
@@ -1981,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="29"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:11" hidden="1" outlineLevel="1">
       <c r="D22" s="5" t="s">
@@ -1991,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="29"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:11" hidden="1" outlineLevel="1">
       <c r="E23" s="3" t="s">
@@ -2003,7 +2088,7 @@
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="29"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" hidden="1" outlineLevel="1">
       <c r="E24" s="3" t="s">
@@ -2015,7 +2100,7 @@
       <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="29"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" collapsed="1">
       <c r="B25" s="3" t="s">
@@ -2027,8 +2112,8 @@
       <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="29" t="s">
-        <v>315</v>
+      <c r="K25" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2039,8 +2124,8 @@
         <v>0</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="30" t="s">
-        <v>307</v>
+      <c r="K26" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -2054,8 +2139,8 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>160</v>
+      <c r="K27" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2080,8 +2165,8 @@
       <c r="J29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>161</v>
+      <c r="K29" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2095,8 +2180,8 @@
       <c r="J30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>162</v>
+      <c r="K30" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2110,8 +2195,8 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>316</v>
+      <c r="K31" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2123,8 +2208,8 @@
         <v>22</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="19" t="s">
-        <v>317</v>
+      <c r="K32" s="18" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2147,8 +2232,8 @@
         <v>0</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="19" t="s">
-        <v>318</v>
+      <c r="K34" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2162,7 +2247,7 @@
       <c r="J35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="19"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="3"/>
@@ -2175,7 +2260,7 @@
       <c r="J36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="19"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="3"/>
@@ -2186,8 +2271,8 @@
         <v>0</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="11" t="s">
-        <v>173</v>
+      <c r="K37" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2201,7 +2286,7 @@
       <c r="J38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="11"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="3"/>
@@ -2214,11 +2299,11 @@
       <c r="J39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="11"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -2227,8 +2312,8 @@
       <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="19" t="s">
-        <v>165</v>
+      <c r="K40" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2241,7 +2326,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2255,8 +2340,8 @@
       <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="19" t="s">
-        <v>279</v>
+      <c r="K42" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2270,8 +2355,8 @@
       <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="19" t="s">
-        <v>280</v>
+      <c r="K43" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2285,8 +2370,8 @@
       <c r="J44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="19" t="s">
-        <v>308</v>
+      <c r="K44" s="18" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2300,8 +2385,8 @@
       <c r="J45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>282</v>
+      <c r="K45" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2326,11 +2411,11 @@
       <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="48" t="s">
-        <v>320</v>
+      <c r="K47" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="L47" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2344,8 +2429,8 @@
       <c r="J48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>284</v>
+      <c r="K48" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2392,8 +2477,8 @@
       <c r="J52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>309</v>
+      <c r="K52" s="21" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2407,8 +2492,8 @@
       <c r="J53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>310</v>
+      <c r="K53" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2422,8 +2507,8 @@
       <c r="J54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>311</v>
+      <c r="K54" s="21" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2437,8 +2522,8 @@
       <c r="J55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>166</v>
+      <c r="K55" s="21" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2485,8 +2570,8 @@
       <c r="J59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>288</v>
+      <c r="K59" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,8 +2585,8 @@
       <c r="J60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>288</v>
+      <c r="K60" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2515,8 +2600,8 @@
       <c r="J61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>289</v>
+      <c r="K61" s="10" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2530,8 +2615,8 @@
       <c r="J62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>290</v>
+      <c r="K62" s="10" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2545,8 +2630,8 @@
       <c r="J63" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>282</v>
+      <c r="K63" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2560,8 +2645,8 @@
       <c r="J64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>291</v>
+      <c r="K64" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2575,8 +2660,8 @@
       <c r="J65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>321</v>
+      <c r="K65" s="10" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2590,8 +2675,8 @@
       <c r="J66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="48" t="s">
-        <v>292</v>
+      <c r="K66" s="36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2603,8 +2688,8 @@
         <v>3</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="19" t="s">
-        <v>293</v>
+      <c r="K67" s="18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2629,8 +2714,8 @@
       <c r="J69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="19" t="s">
-        <v>294</v>
+      <c r="K69" s="18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2644,8 +2729,8 @@
       <c r="J70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="19" t="s">
-        <v>295</v>
+      <c r="K70" s="18" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2657,8 +2742,8 @@
         <v>3</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="49" t="s">
-        <v>322</v>
+      <c r="K71" s="37" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2672,8 +2757,8 @@
       <c r="J72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K72" s="11" t="s">
-        <v>323</v>
+      <c r="K72" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2687,8 +2772,8 @@
       <c r="J73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="11" t="s">
-        <v>324</v>
+      <c r="K73" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2702,8 +2787,8 @@
       <c r="J74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="11" t="s">
-        <v>325</v>
+      <c r="K74" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2715,8 +2800,8 @@
         <v>3</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="11" t="s">
-        <v>297</v>
+      <c r="K75" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2741,8 +2826,8 @@
       <c r="J77" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>298</v>
+      <c r="K77" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2756,8 +2841,8 @@
       <c r="J78" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>299</v>
+      <c r="K78" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2771,8 +2856,8 @@
       <c r="J79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>300</v>
+      <c r="K79" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2786,8 +2871,8 @@
       <c r="J80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>167</v>
+      <c r="K80" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -2800,8 +2885,8 @@
       <c r="J81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>167</v>
+      <c r="K81" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -2812,8 +2897,8 @@
         <v>3</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="50" t="s">
-        <v>326</v>
+      <c r="K82" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -2848,8 +2933,8 @@
         <v>3</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="50" t="s">
-        <v>326</v>
+      <c r="K85" s="38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -2887,7 +2972,7 @@
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>
@@ -2917,32 +3002,32 @@
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="57" style="12" customWidth="1"/>
+    <col min="11" max="11" width="57" style="11" customWidth="1"/>
     <col min="12" max="12" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2953,8 +3038,8 @@
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="9" t="s">
-        <v>154</v>
+      <c r="K2" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2967,8 +3052,8 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>155</v>
+      <c r="K3" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2981,8 +3066,8 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>156</v>
+      <c r="K4" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2995,11 +3080,11 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="52" t="s">
-        <v>327</v>
+      <c r="K5" s="40" t="s">
+        <v>280</v>
       </c>
       <c r="L5" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3012,375 +3097,368 @@
       <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>172</v>
+      <c r="K6" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>172</v>
+        <v>19</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>160</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>161</v>
+      <c r="K14" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="K26" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="D19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="I25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="K32" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="L32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>284</v>
-      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="5" t="s">
-        <v>94</v>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="D35" s="5" t="s">
-        <v>54</v>
+      <c r="E35" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>3</v>
@@ -3389,18 +3467,22 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="E36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="37" spans="3:11">
       <c r="F37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>3</v>
@@ -3408,13 +3490,13 @@
       <c r="J37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>309</v>
+      <c r="K37" s="21" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="3:11">
       <c r="F38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
@@ -3422,55 +3504,51 @@
       <c r="J38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>310</v>
+      <c r="K38" s="21" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="F39" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>311</v>
+        <v>8</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="3:11">
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>329</v>
+        <v>52</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="3:11">
-      <c r="F41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>167</v>
-      </c>
+      <c r="D41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="D42" s="5" t="s">
-        <v>60</v>
+      <c r="E42" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>3</v>
@@ -3479,8 +3557,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="E43" s="5" t="s">
-        <v>61</v>
+      <c r="F43" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>3</v>
@@ -3489,18 +3567,22 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="F44" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="G44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="45" spans="3:11">
       <c r="G45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
@@ -3508,13 +3590,13 @@
       <c r="J45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>288</v>
+      <c r="K45" s="10" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="G46" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
@@ -3522,69 +3604,69 @@
       <c r="J46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>288</v>
+      <c r="K46" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="3:11">
-      <c r="G47" s="3" t="s">
-        <v>58</v>
+      <c r="F47" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>289</v>
+        <v>8</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="3:11">
-      <c r="F48" s="3" t="s">
-        <v>62</v>
+      <c r="E48" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>290</v>
+        <v>31</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="5:11">
-      <c r="F49" s="3" t="s">
-        <v>63</v>
+      <c r="E49" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>282</v>
+        <v>19</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="5:11">
-      <c r="F50" s="3" t="s">
-        <v>64</v>
+      <c r="E50" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>291</v>
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="5:11">
-      <c r="F51" s="3" t="s">
-        <v>65</v>
+      <c r="E51" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>3</v>
@@ -3592,103 +3674,103 @@
       <c r="J51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>321</v>
+      <c r="K51" s="36" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="5:11">
-      <c r="F52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="48" t="s">
-        <v>292</v>
+      <c r="E52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="18" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="5:11">
-      <c r="E53" s="5" t="s">
-        <v>67</v>
+      <c r="F53" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="19" t="s">
-        <v>293</v>
-      </c>
+      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="5:11">
-      <c r="F54" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="55" spans="5:11">
       <c r="G55" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>294</v>
+        <v>4</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="5:11">
-      <c r="G56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>295</v>
+      <c r="F56" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="37" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="5:11">
-      <c r="F57" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="49" t="s">
-        <v>322</v>
+      <c r="G57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="5:11">
       <c r="G58" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>323</v>
+        <v>8</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="5:11">
       <c r="G59" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>3</v>
@@ -3696,49 +3778,49 @@
       <c r="J59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>324</v>
+      <c r="K59" s="10" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="5:11">
-      <c r="G60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>325</v>
+      <c r="E60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="5:11">
-      <c r="E61" s="5" t="s">
-        <v>69</v>
+      <c r="F61" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="11" t="s">
-        <v>297</v>
-      </c>
+      <c r="K61" s="2"/>
     </row>
     <row r="62" spans="5:11">
-      <c r="F62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="G62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="63" spans="5:11">
       <c r="G63" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>3</v>
@@ -3746,13 +3828,13 @@
       <c r="J63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>298</v>
+      <c r="K63" s="10" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="5:11">
       <c r="G64" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
@@ -3760,27 +3842,27 @@
       <c r="J64" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>299</v>
+      <c r="K64" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="G65" s="3" t="s">
-        <v>58</v>
+      <c r="F65" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>300</v>
+        <v>8</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="F66" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>3</v>
@@ -3788,113 +3870,111 @@
       <c r="J66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>167</v>
+      <c r="K66" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="2:11">
-      <c r="F67" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="51" customFormat="1">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54" t="s">
+      <c r="I67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="39" customFormat="1">
+      <c r="B68" s="42"/>
+      <c r="C68" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="55" t="s">
+      <c r="I68" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K69" s="56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="5" t="s">
+      <c r="K68" s="44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="51" customFormat="1">
-      <c r="B71" s="54"/>
-      <c r="C71" s="54" t="s">
+      <c r="I69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="39" customFormat="1">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="55" t="s">
+      <c r="I70" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="56" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="51" customFormat="1">
-      <c r="B72" s="51" t="s">
+      <c r="K70" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="39" customFormat="1">
+      <c r="B71" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="55"/>
-      <c r="K72" s="56" t="s">
-        <v>330</v>
-      </c>
+      <c r="I71" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="43"/>
+      <c r="K71" s="44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" hidden="1" outlineLevel="2">
+      <c r="B72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="B73" s="5" t="s">
-        <v>74</v>
+      <c r="C73" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2"/>
-      <c r="K73" s="11"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C74" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="11"/>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="2:11" hidden="1" outlineLevel="2">
       <c r="D75" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>3</v>
@@ -3902,142 +3982,142 @@
       <c r="J75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="11"/>
+      <c r="K75" s="10"/>
     </row>
     <row r="76" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="C76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" outlineLevel="2">
+      <c r="D77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="11"/>
+      <c r="K77" s="10"/>
     </row>
     <row r="78" spans="2:11" hidden="1" outlineLevel="2">
       <c r="D78" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K78" s="11"/>
+      <c r="K78" s="10"/>
     </row>
     <row r="79" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D79" s="3" t="s">
-        <v>11</v>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" outlineLevel="2">
+      <c r="B80" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="B81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="D83" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="D84" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="E85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="F86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C80" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="B81" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="B82" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D84" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="22"/>
-    </row>
-    <row r="85" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="22"/>
-    </row>
-    <row r="86" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E86" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="22"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F87" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>3</v>
@@ -4045,197 +4125,197 @@
       <c r="J87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K87" s="22"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J88" s="4" t="s">
+      <c r="E88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K88" s="22"/>
-    </row>
-    <row r="89" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="22"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F90" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="22"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" s="3"/>
       <c r="I91" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D92" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="I92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K92" s="22"/>
+      <c r="D92" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="22"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E94" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="2"/>
-      <c r="K94" s="22"/>
+      <c r="F94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F95" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="16"/>
+      <c r="K96" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="C97" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="C98" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="D99" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="10"/>
+    </row>
+    <row r="100" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="E100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J100" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="22"/>
-    </row>
-    <row r="96" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F96" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J96" s="4" t="s">
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="E101" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="F102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="G103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="22"/>
-    </row>
-    <row r="97" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J97" s="17"/>
-      <c r="K97" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="C98" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" s="11"/>
-    </row>
-    <row r="99" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="C99" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J99" s="2"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="D100" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="E101" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="E102" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="11"/>
-    </row>
-    <row r="103" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="F103" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="11"/>
-    </row>
-    <row r="104" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="3:11" hidden="1" outlineLevel="3">
       <c r="G104" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>3</v>
@@ -4243,162 +4323,150 @@
       <c r="J104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K104" s="11"/>
-    </row>
-    <row r="105" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="G105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="4" t="s">
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="F105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="G106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K105" s="11"/>
-    </row>
-    <row r="106" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="F106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="11"/>
-    </row>
-    <row r="107" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="3:11" hidden="1" outlineLevel="3">
       <c r="G107" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K107" s="11"/>
-    </row>
-    <row r="108" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="G108" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="E108" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="3"/>
       <c r="I108" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="E109" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="2"/>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="F110" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="G111" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="3:11" hidden="1" outlineLevel="3">
+      <c r="G112" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K108" s="11"/>
-    </row>
-    <row r="109" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="E109" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="I109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K109" s="11"/>
-    </row>
-    <row r="110" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="E110" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="11"/>
-    </row>
-    <row r="111" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="F111" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="11"/>
-    </row>
-    <row r="112" spans="1:11" hidden="1" outlineLevel="3">
-      <c r="G112" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" s="11"/>
-    </row>
-    <row r="113" spans="2:12" hidden="1" outlineLevel="3">
-      <c r="G113" s="3" t="s">
-        <v>84</v>
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="2:12" collapsed="1">
+      <c r="B113" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K113" s="11"/>
-    </row>
-    <row r="114" spans="2:12" collapsed="1">
+      <c r="K113" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L113" s="41"/>
+    </row>
+    <row r="114" spans="2:12">
       <c r="B114" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="L114" s="53"/>
+        <v>8</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="115" spans="2:12">
       <c r="B115" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K115" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12">
-      <c r="B116" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K116" s="11" t="s">
-        <v>171</v>
+      <c r="K115" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B70:B71">
+  <conditionalFormatting sqref="B69:B70">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
+  <conditionalFormatting sqref="C70">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4410,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -4423,7 +4491,7 @@
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="57.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
@@ -4432,18 +4500,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
@@ -4452,7 +4520,7 @@
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4463,8 +4531,8 @@
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="29" t="s">
-        <v>184</v>
+      <c r="K2" s="25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4475,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="29"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:14">
       <c r="C4" s="5" t="s">
@@ -4485,8 +4553,8 @@
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="11" t="s">
-        <v>185</v>
+      <c r="K4" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.9" customHeight="1">
@@ -4499,8 +4567,8 @@
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>160</v>
+      <c r="K5" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4511,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" customHeight="1">
       <c r="E7" s="3" t="s">
@@ -4523,8 +4591,8 @@
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>161</v>
+      <c r="K7" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.45" customHeight="1">
@@ -4537,12 +4605,10 @@
       <c r="J8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="K8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1">
       <c r="E9" s="3" t="s">
@@ -4554,8 +4620,8 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>164</v>
+      <c r="K9" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4566,8 +4632,8 @@
         <v>16</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="19" t="s">
-        <v>176</v>
+      <c r="K10" s="18" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4578,8 +4644,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="19" t="s">
-        <v>177</v>
+      <c r="K11" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
@@ -4599,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1">
       <c r="E14" s="3" t="s">
@@ -4611,8 +4677,8 @@
       <c r="J14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>165</v>
+      <c r="K14" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4625,224 +4691,233 @@
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>183</v>
+      <c r="K15" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>204</v>
+        <v>21</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>205</v>
+      <c r="N17" s="27" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="M18" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>206</v>
+      <c r="N18" s="27" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="39" customFormat="1">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="29"/>
-      <c r="M20" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="C21" s="5" t="s">
+      <c r="I24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="25"/>
+      <c r="M24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="29"/>
-    </row>
-    <row r="23" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="29"/>
+      <c r="I25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="25" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="26" spans="2:14" hidden="1" outlineLevel="1">
       <c r="C26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="2:14" hidden="1" outlineLevel="1">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:14" hidden="1" outlineLevel="1">
+      <c r="C28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:14" hidden="1" outlineLevel="1">
+      <c r="C29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="2:14" hidden="1" outlineLevel="1">
+      <c r="C30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="29"/>
-    </row>
-    <row r="29" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="E29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="E30" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>3</v>
@@ -4850,11 +4925,12 @@
       <c r="J30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="29"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="2:14" hidden="1" outlineLevel="1">
+      <c r="C31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>3</v>
@@ -4862,33 +4938,34 @@
       <c r="J31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="29"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="2:14" hidden="1" outlineLevel="1">
-      <c r="E32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="29"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="3:11" hidden="1" outlineLevel="1">
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="29"/>
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="3:11" hidden="1" outlineLevel="1">
       <c r="E34" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>3</v>
@@ -4896,43 +4973,45 @@
       <c r="J34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="29"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="3:11" hidden="1" outlineLevel="1">
-      <c r="D35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="29"/>
+      <c r="E35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="3:11" hidden="1" outlineLevel="1">
       <c r="E36" s="5" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="29"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="3:11" hidden="1" outlineLevel="1">
-      <c r="F37" s="3" t="s">
-        <v>83</v>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="3:11" hidden="1" outlineLevel="1">
-      <c r="F38" s="3" t="s">
-        <v>84</v>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
@@ -4940,45 +5019,43 @@
       <c r="J38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="29"/>
-    </row>
-    <row r="39" spans="3:11" ht="15" customHeight="1" collapsed="1">
-      <c r="C39" s="5" t="s">
-        <v>118</v>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="3:11" hidden="1" outlineLevel="1">
+      <c r="D39" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="D40" s="5" t="s">
-        <v>1</v>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="3:11" hidden="1" outlineLevel="1">
+      <c r="E40" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="29"/>
-    </row>
-    <row r="41" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E41" s="3" t="s">
-        <v>2</v>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="3:11" hidden="1" outlineLevel="1">
+      <c r="F41" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="3:11" hidden="1" outlineLevel="1">
+      <c r="F42" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>3</v>
@@ -4986,45 +5063,45 @@
       <c r="J42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="29"/>
-    </row>
-    <row r="43" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="4" t="s">
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="3:11" ht="15" customHeight="1" collapsed="1">
+      <c r="C43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" hidden="1" outlineLevel="2">
+      <c r="D44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="3:11" hidden="1" outlineLevel="2">
+      <c r="E45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="29"/>
-    </row>
-    <row r="44" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="29"/>
-    </row>
-    <row r="45" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="29"/>
+      <c r="K45" s="25"/>
     </row>
     <row r="46" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="F46" s="3" t="s">
-        <v>10</v>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
@@ -5032,11 +5109,11 @@
       <c r="J46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="29"/>
+      <c r="K46" s="25"/>
     </row>
     <row r="47" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="F47" s="3" t="s">
-        <v>11</v>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>3</v>
@@ -5044,33 +5121,33 @@
       <c r="J47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="29"/>
+      <c r="K47" s="25"/>
     </row>
     <row r="48" spans="3:11" hidden="1" outlineLevel="2">
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="29"/>
-    </row>
-    <row r="49" spans="3:12" hidden="1" outlineLevel="2">
-      <c r="E49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="29"/>
-    </row>
-    <row r="50" spans="3:12" hidden="1" outlineLevel="2">
-      <c r="E50" s="3" t="s">
-        <v>14</v>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="F50" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>3</v>
@@ -5078,150 +5155,147 @@
       <c r="J50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K50" s="29"/>
-    </row>
-    <row r="51" spans="3:12" hidden="1" outlineLevel="2">
-      <c r="D51" s="3" t="s">
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="25"/>
+    </row>
+    <row r="54" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="E54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="55" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="D55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4" t="s">
+      <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K51" s="29"/>
-    </row>
-    <row r="52" spans="3:12" hidden="1" outlineLevel="2">
-      <c r="D52" s="3" t="s">
+      <c r="K55" s="25"/>
+    </row>
+    <row r="56" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="D56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4" t="s">
+      <c r="I56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="29"/>
-    </row>
-    <row r="53" spans="3:12" hidden="1" outlineLevel="2">
-      <c r="D53" s="3" t="s">
+      <c r="K56" s="25"/>
+    </row>
+    <row r="57" spans="4:11" hidden="1" outlineLevel="2">
+      <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="29"/>
-    </row>
-    <row r="54" spans="3:12" collapsed="1">
-      <c r="C54" s="5" t="s">
+      <c r="I57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="25"/>
+    </row>
+    <row r="58" spans="4:11" ht="12.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="L54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" ht="12.6" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D55" s="5" t="s">
+      <c r="I58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="25"/>
+    </row>
+    <row r="59" spans="4:11" hidden="1" outlineLevel="1">
+      <c r="E59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="29"/>
-    </row>
-    <row r="56" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="E56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="29"/>
-    </row>
-    <row r="57" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="F57" s="5" t="s">
+      <c r="I59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="25"/>
+    </row>
+    <row r="60" spans="4:11" hidden="1" outlineLevel="1">
+      <c r="F60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="29"/>
-    </row>
-    <row r="58" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="G58" s="3" t="s">
+      <c r="I60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="4:11" hidden="1" outlineLevel="1">
+      <c r="G61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="4" t="s">
+      <c r="I61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="29"/>
-    </row>
-    <row r="59" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="G59" s="3" t="s">
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="4:11" hidden="1" outlineLevel="1">
+      <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="4" t="s">
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="29"/>
-    </row>
-    <row r="60" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="G60" s="3" t="s">
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="4:11" hidden="1" outlineLevel="1">
+      <c r="G63" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="29"/>
-    </row>
-    <row r="61" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="G61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="29"/>
-    </row>
-    <row r="62" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="F62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="29"/>
-    </row>
-    <row r="63" spans="3:12" hidden="1" outlineLevel="1">
-      <c r="G63" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>3</v>
@@ -5229,33 +5303,33 @@
       <c r="J63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K63" s="29"/>
-    </row>
-    <row r="64" spans="3:12" hidden="1" outlineLevel="1">
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="4:11" hidden="1" outlineLevel="1">
       <c r="G64" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K64" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="K64" s="25"/>
     </row>
     <row r="65" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F65" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="K65" s="29"/>
+      <c r="K65" s="25"/>
     </row>
     <row r="66" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>3</v>
@@ -5263,11 +5337,11 @@
       <c r="J66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="29"/>
+      <c r="K66" s="25"/>
     </row>
     <row r="67" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G67" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>3</v>
@@ -5275,31 +5349,33 @@
       <c r="J67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="29"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="2:11" hidden="1" outlineLevel="1">
-      <c r="E68" s="5" t="s">
-        <v>122</v>
+      <c r="F68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="29"/>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" spans="2:11" hidden="1" outlineLevel="1">
-      <c r="F69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="29"/>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="25"/>
     </row>
     <row r="70" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G70" s="3" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>3</v>
@@ -5307,33 +5383,31 @@
       <c r="J70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="29"/>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" spans="2:11" hidden="1" outlineLevel="1">
-      <c r="G71" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K71" s="29"/>
+      <c r="E71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="25"/>
     </row>
     <row r="72" spans="2:11" hidden="1" outlineLevel="1">
       <c r="F72" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="29"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G73" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>3</v>
@@ -5341,11 +5415,11 @@
       <c r="J73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="29"/>
-    </row>
-    <row r="74" spans="2:11" ht="0.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="K73" s="25"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" outlineLevel="1">
       <c r="G74" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>3</v>
@@ -5353,25 +5427,54 @@
       <c r="J74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="29"/>
-    </row>
-    <row r="75" spans="2:11" collapsed="1">
-      <c r="B75" s="3" t="s">
+      <c r="K74" s="25"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" outlineLevel="1">
+      <c r="F75" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="25"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" outlineLevel="1">
+      <c r="G76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="25"/>
+    </row>
+    <row r="77" spans="2:11" ht="0.6" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="G77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="25"/>
+    </row>
+    <row r="78" spans="2:11" collapsed="1">
+      <c r="B78" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J75" s="4" t="s">
+      <c r="I78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K75" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="J78">
-        <v>10478</v>
+      <c r="K78" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5379,16 +5482,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5402,22 +5505,22 @@
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="12" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
@@ -5426,28 +5529,22 @@
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -5457,14 +5554,11 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="K3" s="47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
@@ -5474,14 +5568,11 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
@@ -5491,14 +5582,11 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -5508,14 +5596,11 @@
       <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="K6" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
@@ -5525,192 +5610,162 @@
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="K7" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="M8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="E13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="5" t="s">
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="D17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="D18" s="5" t="s">
+      <c r="I18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="D19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="E19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="E20" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="E20" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>0</v>
@@ -5718,337 +5773,297 @@
       <c r="J20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="D22" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="D23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="E23" s="5" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="E24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="F24" s="5" t="s">
+      <c r="I24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="G26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="I26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="G26" s="3" t="s">
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="G27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="F27" s="5" t="s">
+      <c r="I27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="F28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="G28" s="3" t="s">
+      <c r="I28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="G29" s="3" t="s">
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="G30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="E30" s="3" t="s">
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="E31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="I32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30">
+        <v>4</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>8</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="3"/>
       <c r="C35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="L35" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="K36" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3"/>
       <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="s">
+      <c r="I39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L38" s="42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="K39" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>55</v>
+      <c r="E41" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="L42" s="45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>3</v>
@@ -6056,17 +6071,14 @@
       <c r="J43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
@@ -6074,110 +6086,92 @@
       <c r="J44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="L44" s="45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="L45" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3"/>
       <c r="G46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="3"/>
+      <c r="G47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="4" t="s">
+      <c r="I47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="L46" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="5"/>
-      <c r="E47" s="5" t="s">
+      <c r="K47" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5"/>
+      <c r="E48" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>55</v>
+      <c r="F49" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="L50" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="M50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>3</v>
@@ -6185,17 +6179,17 @@
       <c r="J51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="L51" s="42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="K51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>3</v>
@@ -6203,287 +6197,240 @@
       <c r="J52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="L52" s="42" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="K52" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="L53" s="42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="L54" s="42" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>8</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="L55" s="42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="3"/>
       <c r="H57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3"/>
+      <c r="H58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="L57" s="40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30">
-      <c r="A58" s="5"/>
-      <c r="F58" s="5" t="s">
+      <c r="I58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="5"/>
+      <c r="F59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="L58" s="44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="5"/>
-      <c r="G59" s="5" t="s">
+      <c r="I59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="5"/>
+      <c r="G60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="43"/>
-    </row>
-    <row r="60" spans="1:13" ht="30">
-      <c r="A60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="L60" s="44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30">
+      <c r="I60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="3"/>
       <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3"/>
+      <c r="H62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="L61" s="44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="5"/>
-      <c r="G62" s="5" t="s">
+      <c r="K62" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="5"/>
+      <c r="G63" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="L62" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="I63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>31</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="3"/>
       <c r="H65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3"/>
+      <c r="H66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="5"/>
-      <c r="F66" s="5" t="s">
+      <c r="I66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="5"/>
+      <c r="F67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L66" s="42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="5"/>
-      <c r="G67" s="5" t="s">
+      <c r="I67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="5"/>
+      <c r="G68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="43"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="L68" s="42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="I68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>3</v>
@@ -6491,17 +6438,14 @@
       <c r="J69" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="L69" s="42" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="K69" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>3</v>
@@ -6509,94 +6453,111 @@
       <c r="J70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K70" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="L70" s="42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="K70" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="3"/>
-      <c r="G71" s="3" t="s">
-        <v>43</v>
+      <c r="H71" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L71" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>52</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="3"/>
       <c r="G72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3"/>
+      <c r="G73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L72" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3" t="s">
+      <c r="I73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3"/>
+      <c r="B74" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="G74" s="3"/>
+      <c r="I74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K73" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="L73" s="42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="B74" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="C75" s="3" t="s">
+      <c r="J75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="C77" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4" t="s">
+      <c r="I77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="L75" t="s">
-        <v>272</v>
-      </c>
-      <c r="M75" t="s">
-        <v>240</v>
+      <c r="K77" t="s">
+        <v>333</v>
+      </c>
+      <c r="L77" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6604,16 +6565,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6632,18 +6593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
@@ -6652,19 +6613,19 @@
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="29" t="s">
-        <v>208</v>
+      <c r="K2" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6677,13 +6638,13 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>209</v>
+      <c r="K3" s="25" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -6691,13 +6652,13 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>210</v>
+      <c r="K4" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>3</v>
@@ -6705,24 +6666,24 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="18"/>
+      <c r="K5" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>218</v>
+      <c r="K6" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6733,8 +6694,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="29" t="s">
-        <v>194</v>
+      <c r="K7" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6747,8 +6708,8 @@
       <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>195</v>
+      <c r="K8" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6761,20 +6722,20 @@
       <c r="J9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>196</v>
+      <c r="K9" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="29" t="s">
-        <v>241</v>
+      <c r="K10" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6787,8 +6748,8 @@
       <c r="J11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>242</v>
+      <c r="K11" s="25" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6801,19 +6762,19 @@
       <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>243</v>
+      <c r="K12" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="29"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:12" outlineLevel="1">
       <c r="C14" s="5" t="s">
@@ -6823,8 +6784,8 @@
         <v>0</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="11" t="s">
-        <v>169</v>
+      <c r="K14" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:12" outlineLevel="1">
@@ -6837,8 +6798,8 @@
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>160</v>
+      <c r="K15" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12" outlineLevel="1">
@@ -6849,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:12" outlineLevel="1">
       <c r="E17" s="3" t="s">
@@ -6861,8 +6822,8 @@
       <c r="J17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>161</v>
+      <c r="K17" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:12" outlineLevel="1">
@@ -6875,8 +6836,8 @@
       <c r="J18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="39" t="s">
-        <v>162</v>
+      <c r="K18" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:12" outlineLevel="1">
@@ -6889,8 +6850,8 @@
       <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>164</v>
+      <c r="K19" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:12" outlineLevel="1">
@@ -6901,8 +6862,8 @@
         <v>16</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="19" t="s">
-        <v>176</v>
+      <c r="K20" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:12" outlineLevel="1">
@@ -6913,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="2:12" outlineLevel="1">
       <c r="G22" s="5" t="s">
@@ -6923,8 +6884,8 @@
         <v>0</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="19" t="s">
-        <v>177</v>
+      <c r="K22" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:12" outlineLevel="1">
@@ -6937,8 +6898,8 @@
       <c r="J23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="19" t="s">
-        <v>178</v>
+      <c r="K23" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:12" outlineLevel="1">
@@ -6951,8 +6912,8 @@
       <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>179</v>
+      <c r="K24" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:12" outlineLevel="1">
@@ -6963,8 +6924,8 @@
         <v>0</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="11" t="s">
-        <v>173</v>
+      <c r="K25" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="2:12" outlineLevel="1">
@@ -6977,8 +6938,8 @@
       <c r="J26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>174</v>
+      <c r="K26" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:12" outlineLevel="1">
@@ -6991,8 +6952,8 @@
       <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>175</v>
+      <c r="K27" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:12" outlineLevel="1">
@@ -7005,13 +6966,13 @@
       <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>216</v>
+      <c r="K28" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>3</v>
@@ -7019,16 +6980,14 @@
       <c r="J29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>212</v>
-      </c>
+      <c r="K29" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>3</v>
@@ -7036,13 +6995,13 @@
       <c r="J30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>214</v>
+      <c r="K30" s="28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>3</v>
@@ -7050,51 +7009,66 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>237</v>
+      <c r="K31" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="48"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="29" t="s">
-        <v>215</v>
+      <c r="J33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="I35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="29" t="s">
-        <v>181</v>
+      <c r="K35" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7102,16 +7076,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -7127,18 +7101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="A1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>91</v>
@@ -7147,19 +7121,19 @@
         <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="29" t="s">
-        <v>219</v>
+      <c r="K2" s="25" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7172,13 +7146,13 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>181</v>
+      <c r="K3" s="25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -7186,8 +7160,8 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>180</v>
+      <c r="K4" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7198,8 +7172,8 @@
         <v>3</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="29" t="s">
-        <v>229</v>
+      <c r="K5" s="25" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" outlineLevel="1">
@@ -7210,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D7" s="3" t="s">
@@ -7222,7 +7196,7 @@
       <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:12" hidden="1" outlineLevel="1">
       <c r="C8" s="5" t="s">
@@ -7232,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="29"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D9" s="5" t="s">
@@ -7242,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="29"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E10" s="3" t="s">
@@ -7254,7 +7228,7 @@
       <c r="J10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E11" s="3" t="s">
@@ -7266,7 +7240,7 @@
       <c r="J11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:12" hidden="1" outlineLevel="1">
       <c r="D12" s="5" t="s">
@@ -7276,7 +7250,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E13" s="3" t="s">
@@ -7288,7 +7262,7 @@
       <c r="J13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:12" hidden="1" outlineLevel="1">
       <c r="E14" s="3" t="s">
@@ -7300,7 +7274,7 @@
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:12" hidden="1" outlineLevel="1">
       <c r="C15" s="3" t="s">
@@ -7312,18 +7286,18 @@
       <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:12" collapsed="1">
       <c r="B16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="29" t="s">
-        <v>222</v>
+      <c r="K16" s="25" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7336,8 +7310,8 @@
       <c r="J17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>230</v>
+      <c r="K17" s="25" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7350,13 +7324,13 @@
       <c r="J18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="29" t="s">
-        <v>231</v>
+      <c r="K18" s="25" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
@@ -7364,19 +7338,21 @@
       <c r="J19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="29" t="s">
-        <v>232</v>
+      <c r="K19" s="25" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="26" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="C21" s="5" t="s">
@@ -7386,9 +7362,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="11" t="s">
-        <v>169</v>
-      </c>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11">
       <c r="D22" s="3" t="s">
@@ -7400,8 +7374,8 @@
       <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="19" t="s">
-        <v>160</v>
+      <c r="K22" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -7424,8 +7398,8 @@
       <c r="J24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="19" t="s">
-        <v>161</v>
+      <c r="K24" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -7438,8 +7412,8 @@
       <c r="J25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>162</v>
+      <c r="K25" s="22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -7452,8 +7426,8 @@
       <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>164</v>
+      <c r="K26" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -7464,8 +7438,8 @@
         <v>16</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="19" t="s">
-        <v>176</v>
+      <c r="K27" s="18" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7486,8 +7460,8 @@
         <v>0</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="19" t="s">
-        <v>177</v>
+      <c r="K29" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7500,9 +7474,7 @@
       <c r="J30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>178</v>
-      </c>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:11">
       <c r="G31" s="3" t="s">
@@ -7514,9 +7486,7 @@
       <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>179</v>
-      </c>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="2:11">
       <c r="F32" s="5" t="s">
@@ -7526,8 +7496,8 @@
         <v>0</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="11" t="s">
-        <v>173</v>
+      <c r="K32" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -7540,9 +7510,7 @@
       <c r="J33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>174</v>
-      </c>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11">
       <c r="G34" s="3" t="s">
@@ -7554,9 +7522,7 @@
       <c r="J34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11">
       <c r="E35" s="3" t="s">
@@ -7568,13 +7534,13 @@
       <c r="J35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="19" t="s">
-        <v>165</v>
+      <c r="K35" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>3</v>
@@ -7584,7 +7550,7 @@
     </row>
     <row r="37" spans="2:11">
       <c r="C37" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>3</v>
@@ -7592,27 +7558,27 @@
       <c r="J37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="29" t="s">
-        <v>220</v>
+      <c r="K37" s="25" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="C38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K38" s="29" t="s">
-        <v>223</v>
+      <c r="K38" s="25" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="C39" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>3</v>
@@ -7620,20 +7586,20 @@
       <c r="J39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="29" t="s">
-        <v>221</v>
+      <c r="K39" s="25" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="5" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="37" t="s">
-        <v>233</v>
+      <c r="K40" s="52" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7644,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="38"/>
+      <c r="K41" s="49"/>
     </row>
     <row r="42" spans="2:11">
       <c r="D42" s="3" t="s">
@@ -7656,9 +7622,7 @@
       <c r="J42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="37" t="s">
-        <v>195</v>
-      </c>
+      <c r="K42" s="50"/>
     </row>
     <row r="43" spans="2:11">
       <c r="D43" s="3" t="s">
@@ -7670,13 +7634,11 @@
       <c r="J43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="37" t="s">
-        <v>196</v>
-      </c>
+      <c r="K43" s="51"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>3</v>
@@ -7684,8 +7646,8 @@
       <c r="J44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="37" t="s">
-        <v>234</v>
+      <c r="K44" s="33" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -7698,14 +7660,53 @@
       <c r="J45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="36" t="s">
-        <v>182</v>
-      </c>
+      <c r="K45" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MedMij-STU3\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -817,15 +817,6 @@
     <t>MedicationRequest.dosageInstructions.additionalInstructions</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.quantityRange.low</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstructions.quantityQuantity</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstructions.quantityRange.high</t>
-  </si>
-  <si>
     <t>MedicationRequest.authoredOn</t>
   </si>
   <si>
@@ -1097,6 +1088,15 @@
   </si>
   <si>
     <t>MedicationRequest.extension (string)</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstructions.doseRange.low</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstructions.doseQuantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstructions.doseRange.high</t>
   </si>
 </sst>
 </file>
@@ -1400,9 +1400,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1445,6 +1442,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1804,16 +1804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1917,7 +1917,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
@@ -2113,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2196,7 +2196,7 @@
         <v>8</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2313,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2411,8 +2411,8 @@
       <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="36" t="s">
-        <v>273</v>
+      <c r="K47" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="L47" t="s">
         <v>219</v>
@@ -2478,7 +2478,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2493,7 +2493,7 @@
         <v>52</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2508,7 +2508,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2661,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2675,7 +2675,7 @@
       <c r="J66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="35" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2742,8 +2742,8 @@
         <v>3</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="37" t="s">
-        <v>275</v>
+      <c r="K71" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2758,7 +2758,7 @@
         <v>31</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2773,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2788,7 +2788,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2897,8 +2897,8 @@
         <v>3</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="38" t="s">
-        <v>279</v>
+      <c r="K82" s="37" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -2933,8 +2933,8 @@
         <v>3</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="38" t="s">
-        <v>279</v>
+      <c r="K85" s="37" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -3007,16 +3007,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -3080,11 +3080,11 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>280</v>
+      <c r="K5" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="L5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="26" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3218,7 +3218,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3353,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3367,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3395,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3418,8 +3418,8 @@
       <c r="J31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="36" t="s">
-        <v>295</v>
+      <c r="K31" s="35" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3433,7 +3433,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -3477,7 +3477,7 @@
         <v>52</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="3:11">
@@ -3491,7 +3491,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="3:11">
@@ -3505,7 +3505,7 @@
         <v>52</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="3:11">
@@ -3519,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="3:11">
@@ -3577,7 +3577,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:11">
@@ -3591,7 +3591,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="3:11">
@@ -3605,7 +3605,7 @@
         <v>52</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="3:11">
@@ -3619,7 +3619,7 @@
         <v>8</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="3:11">
@@ -3633,7 +3633,7 @@
         <v>31</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="5:11">
@@ -3647,7 +3647,7 @@
         <v>19</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="5:11">
@@ -3661,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="5:11">
@@ -3674,8 +3674,8 @@
       <c r="J51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="36" t="s">
-        <v>305</v>
+      <c r="K51" s="35" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="5:11">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="5:11">
@@ -3711,7 +3711,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="5:11">
@@ -3725,7 +3725,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="5:11">
@@ -3736,8 +3736,8 @@
         <v>3</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="37" t="s">
-        <v>309</v>
+      <c r="K56" s="36" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="5:11">
@@ -3751,7 +3751,7 @@
         <v>31</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="5:11">
@@ -3765,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="5:11">
@@ -3779,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="5:11">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="5:11">
@@ -3815,7 +3815,7 @@
         <v>52</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="5:11">
@@ -3829,7 +3829,7 @@
         <v>52</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="5:11">
@@ -3843,7 +3843,7 @@
         <v>52</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3883,22 +3883,22 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="39" customFormat="1">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" s="38" customFormat="1">
+      <c r="B68" s="41"/>
+      <c r="C68" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="43" t="s">
+      <c r="I68" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K68" s="44" t="s">
-        <v>286</v>
+      <c r="K68" s="43" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3910,34 +3910,34 @@
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="39" customFormat="1">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" s="38" customFormat="1">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="43" t="s">
+      <c r="I70" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" s="39" customFormat="1">
-      <c r="B71" s="39" t="s">
+      <c r="K70" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="38" customFormat="1">
+      <c r="B71" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="43"/>
-      <c r="K71" s="44" t="s">
-        <v>283</v>
+      <c r="I71" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="42"/>
+      <c r="K71" s="43" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" outlineLevel="2">
@@ -4427,9 +4427,9 @@
         <v>4</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="L113" s="41"/>
+        <v>281</v>
+      </c>
+      <c r="L113" s="40"/>
     </row>
     <row r="114" spans="2:12">
       <c r="B114" s="3" t="s">
@@ -4500,16 +4500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.9" customHeight="1">
@@ -4608,7 +4608,7 @@
       <c r="K8" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L8" s="45"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="13.15" customHeight="1">
       <c r="E9" s="3" t="s">
@@ -4621,7 +4621,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
@@ -4678,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4703,16 +4703,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -4765,7 +4765,7 @@
       <c r="J19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="45" t="s">
         <v>181</v>
       </c>
       <c r="M19" s="27" t="s">
@@ -4777,16 +4777,16 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4820,22 +4820,22 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="39" customFormat="1">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="38" customFormat="1">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="44" t="s">
-        <v>286</v>
+      <c r="K23" s="43" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="2:14" hidden="1" outlineLevel="1">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="3:11" hidden="1" outlineLevel="2">
@@ -5509,16 +5509,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -5554,8 +5554,8 @@
       <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>330</v>
+      <c r="K3" s="46" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5616,7 +5616,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
@@ -5624,8 +5624,8 @@
       <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="47" t="s">
-        <v>343</v>
+      <c r="K8" s="46" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5638,8 +5638,8 @@
       <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>344</v>
+      <c r="K9" s="46" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5650,8 +5650,8 @@
         <v>0</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="47" t="s">
-        <v>331</v>
+      <c r="K10" s="46" t="s">
+        <v>328</v>
       </c>
       <c r="L10" t="s">
         <v>207</v>
@@ -5665,8 +5665,8 @@
         <v>3</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="47" t="s">
-        <v>332</v>
+      <c r="K11" s="46" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5802,7 +5802,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5910,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5968,7 +5968,7 @@
         <v>4</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6008,8 +6008,8 @@
       <c r="J38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="36" t="s">
-        <v>339</v>
+      <c r="K38" s="35" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6072,7 +6072,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6087,7 +6087,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6102,7 +6102,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6273,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6287,7 +6287,7 @@
       <c r="J58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="35" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6354,8 +6354,8 @@
         <v>3</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="37" t="s">
-        <v>335</v>
+      <c r="K63" s="36" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6370,7 +6370,7 @@
         <v>31</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6385,7 +6385,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6400,7 +6400,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6504,12 +6504,12 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="3"/>
-      <c r="B74" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
+      <c r="B74" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
       <c r="G74" s="3"/>
       <c r="I74" s="4" t="s">
         <v>3</v>
@@ -6554,7 +6554,7 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L77" t="s">
         <v>212</v>
@@ -6593,16 +6593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="K29" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="L29" s="39"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="3" t="s">
@@ -7018,10 +7018,10 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>4</v>
@@ -7029,7 +7029,7 @@
       <c r="K32" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="L32" s="48"/>
+      <c r="L32" s="47"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="3" t="s">
@@ -7084,7 +7084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -7101,16 +7101,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" outlineLevel="1">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7311,7 +7311,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7325,7 +7325,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7339,7 +7339,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="26" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7427,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7535,7 +7535,7 @@
         <v>8</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -7559,7 +7559,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7573,7 +7573,7 @@
         <v>149</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7587,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7598,8 +7598,8 @@
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="52" t="s">
-        <v>354</v>
+      <c r="K40" s="51" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="49"/>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="2:11">
       <c r="D42" s="3" t="s">
@@ -7622,7 +7622,7 @@
       <c r="J42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="50"/>
+      <c r="K42" s="49"/>
     </row>
     <row r="43" spans="2:11">
       <c r="D43" s="3" t="s">
@@ -7634,7 +7634,7 @@
       <c r="J43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="50"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="3" t="s">
@@ -7647,7 +7647,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -7665,17 +7665,17 @@
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="47" t="s">
-        <v>328</v>
+      <c r="B46" s="46" t="s">
+        <v>325</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="2:11">

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Verstrekking" sheetId="6" r:id="rId5"/>
     <sheet name="Verstrekkingsverzoek" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" iterate="1"/>
+  <calcPr calcId="145621" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="359">
   <si>
     <t>1 … 1</t>
   </si>
@@ -580,9 +575,6 @@
     <t>MedicationAdministration.note</t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>Organization.identifier</t>
   </si>
   <si>
@@ -649,9 +641,6 @@
     <t>MedicationDispense.Extenstion.dispensingOrganization(Reference)</t>
   </si>
   <si>
-    <t>Extension in DSTU2, added in STU3</t>
-  </si>
-  <si>
     <t>Vertrekker? Of toediening? Of Voorschrijver?</t>
   </si>
   <si>
@@ -1097,12 +1086,27 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstructions.doseRange.high</t>
+  </si>
+  <si>
+    <t>http://decor.nictiz.nl/medicatieproces/mp-html-20170601T173502/tr-2.16.840.1.113883.2.4.3.11.60.20.77.4.116-2016-07-04T091321.html</t>
+  </si>
+  <si>
+    <t>registrationDate --&gt; issue ingeschoten in ArtDecor. Omschrijving van concept niet duidelijk genoeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization   </t>
+  </si>
+  <si>
+    <t>Or Practitioner, translation says HealthProffesional</t>
+  </si>
+  <si>
+    <t>Extension removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1776,7 +1780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1847,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1861,7 +1865,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1875,7 +1879,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1889,7 +1893,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1903,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1917,7 +1921,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1931,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1943,7 +1947,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1">
@@ -2113,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2125,7 +2129,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -2196,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2209,7 +2213,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2233,7 +2237,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2313,7 +2317,7 @@
         <v>8</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2326,7 +2330,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2341,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2356,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2371,7 +2375,7 @@
         <v>4</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2386,7 +2390,7 @@
         <v>31</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2412,10 +2416,10 @@
         <v>52</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2430,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2478,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2493,7 +2497,7 @@
         <v>52</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2508,7 +2512,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2571,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2586,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2601,7 +2605,7 @@
         <v>52</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2616,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2631,7 +2635,7 @@
         <v>31</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2646,7 +2650,7 @@
         <v>19</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2661,7 +2665,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2676,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2689,7 +2693,7 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2715,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2730,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2743,7 +2747,7 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2758,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2773,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2788,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2801,7 +2805,7 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2827,7 +2831,7 @@
         <v>52</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2842,7 +2846,7 @@
         <v>52</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2857,7 +2861,7 @@
         <v>52</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2898,7 +2902,7 @@
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -2934,7 +2938,7 @@
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -2972,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2988,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>
@@ -3081,10 +3085,10 @@
         <v>21</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3140,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3152,7 +3156,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3218,7 +3222,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3230,7 +3234,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3252,7 +3256,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3327,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3339,7 +3343,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3353,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3367,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3381,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3395,7 +3399,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3419,7 +3423,7 @@
         <v>52</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3433,7 +3437,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="3:11">
@@ -3477,7 +3481,7 @@
         <v>52</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="3:11">
@@ -3491,7 +3495,7 @@
         <v>52</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="3:11">
@@ -3505,7 +3509,7 @@
         <v>52</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="3:11">
@@ -3519,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:11">
@@ -3577,7 +3581,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="3:11">
@@ -3591,7 +3595,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="3:11">
@@ -3605,7 +3609,7 @@
         <v>52</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="3:11">
@@ -3619,7 +3623,7 @@
         <v>8</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="3:11">
@@ -3633,7 +3637,7 @@
         <v>31</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="5:11">
@@ -3647,7 +3651,7 @@
         <v>19</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="5:11">
@@ -3661,7 +3665,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="5:11">
@@ -3675,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="5:11">
@@ -3687,7 +3691,7 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="5:11">
@@ -3711,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="5:11">
@@ -3725,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="5:11">
@@ -3737,7 +3741,7 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="5:11">
@@ -3751,7 +3755,7 @@
         <v>31</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="5:11">
@@ -3765,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="5:11">
@@ -3779,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="5:11">
@@ -3791,7 +3795,7 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="5:11">
@@ -3815,7 +3819,7 @@
         <v>52</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="5:11">
@@ -3829,7 +3833,7 @@
         <v>52</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="5:11">
@@ -3843,7 +3847,7 @@
         <v>52</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3883,7 +3887,7 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="2:11" s="38" customFormat="1">
@@ -3898,7 +3902,7 @@
         <v>17</v>
       </c>
       <c r="K68" s="43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3910,7 +3914,7 @@
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="2:11" s="38" customFormat="1">
@@ -3925,7 +3929,7 @@
         <v>17</v>
       </c>
       <c r="K70" s="43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="2:11" s="38" customFormat="1">
@@ -3937,7 +3941,7 @@
       </c>
       <c r="J71" s="42"/>
       <c r="K71" s="43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" outlineLevel="2">
@@ -4427,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L113" s="40"/>
     </row>
@@ -4554,7 +4558,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.9" customHeight="1">
@@ -4621,7 +4625,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4633,7 +4637,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
@@ -4678,7 +4682,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4695,24 +4699,24 @@
         <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -4729,10 +4733,10 @@
         <v>179</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -4749,10 +4753,10 @@
         <v>180</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -4769,24 +4773,24 @@
         <v>181</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4802,13 +4806,13 @@
         <v>8</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -4820,7 +4824,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="38" customFormat="1">
@@ -4835,7 +4839,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -4848,10 +4852,10 @@
       <c r="J24" s="2"/>
       <c r="K24" s="25"/>
       <c r="M24" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -4863,7 +4867,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="2:14" hidden="1" outlineLevel="1">
@@ -5074,7 +5078,7 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="3:11" hidden="1" outlineLevel="2">
@@ -5541,7 +5545,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5555,7 +5559,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5569,7 +5573,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5583,7 +5587,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5597,7 +5601,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5611,12 +5615,12 @@
         <v>19</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
@@ -5625,7 +5629,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5639,7 +5643,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5651,10 +5655,10 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5666,7 +5670,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5714,7 +5718,7 @@
         <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5726,7 +5730,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5802,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5814,7 +5818,7 @@
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5836,7 +5840,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5910,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5923,7 +5927,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5938,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5953,7 +5957,7 @@
         <v>8</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5968,7 +5972,7 @@
         <v>4</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5983,7 +5987,7 @@
         <v>31</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6009,7 +6013,7 @@
         <v>52</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6024,7 +6028,7 @@
         <v>31</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6072,7 +6076,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6087,7 +6091,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6102,7 +6106,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6117,7 +6121,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6180,10 +6184,10 @@
         <v>52</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6198,7 +6202,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6213,7 +6217,7 @@
         <v>52</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6228,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -6243,7 +6247,7 @@
         <v>31</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6258,7 +6262,7 @@
         <v>19</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6273,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6288,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6301,7 +6305,7 @@
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -6327,7 +6331,7 @@
         <v>8</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -6342,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6355,7 +6359,7 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6370,7 +6374,7 @@
         <v>31</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6385,7 +6389,7 @@
         <v>8</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6400,7 +6404,7 @@
         <v>8</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6413,7 +6417,7 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6439,7 +6443,7 @@
         <v>52</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -6454,7 +6458,7 @@
         <v>52</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6469,7 +6473,7 @@
         <v>52</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6505,7 +6509,7 @@
     <row r="74" spans="1:12">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C74" s="46"/>
       <c r="D74" s="46"/>
@@ -6516,7 +6520,7 @@
       </c>
       <c r="J74" s="4"/>
       <c r="K74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -6531,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="K75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -6554,10 +6558,10 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6571,10 +6575,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6592,7 +6596,7 @@
     <col min="12" max="12" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" customHeight="1">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1">
       <c r="A1" s="52" t="s">
         <v>152</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>133</v>
       </c>
@@ -6625,10 +6629,14 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>196</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -6639,10 +6647,11 @@
         <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>197</v>
+      </c>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
@@ -6653,10 +6662,11 @@
         <v>19</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>198</v>
+      </c>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
@@ -6667,11 +6677,13 @@
         <v>19</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="1:12">
+        <v>216</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="5" t="s">
         <v>129</v>
       </c>
@@ -6680,13 +6692,13 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>204</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
@@ -6695,10 +6707,13 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>356</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="D8" s="3" t="s">
         <v>83</v>
       </c>
@@ -6709,10 +6724,10 @@
         <v>17</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="D9" s="3" t="s">
         <v>84</v>
       </c>
@@ -6723,10 +6738,10 @@
         <v>4</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" s="5" t="s">
         <v>136</v>
       </c>
@@ -6735,10 +6750,10 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
@@ -6749,10 +6764,10 @@
         <v>31</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
@@ -6763,10 +6778,10 @@
         <v>8</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="5" t="s">
         <v>137</v>
       </c>
@@ -6776,7 +6791,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" outlineLevel="1">
+    <row r="14" spans="1:13" outlineLevel="1">
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -6788,7 +6803,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:12" outlineLevel="1">
+    <row r="15" spans="1:13" outlineLevel="1">
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
@@ -6802,7 +6817,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:12" outlineLevel="1">
+    <row r="16" spans="1:13" outlineLevel="1">
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -6967,7 +6982,7 @@
         <v>8</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -6981,7 +6996,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" s="38"/>
     </row>
@@ -6996,7 +7011,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -7010,24 +7025,24 @@
         <v>8</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L32" s="47"/>
     </row>
@@ -7042,7 +7057,7 @@
         <v>4</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -7054,7 +7069,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -7133,7 +7148,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7147,7 +7162,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -7161,7 +7176,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7173,7 +7188,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" outlineLevel="1">
@@ -7297,7 +7312,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7311,7 +7326,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7325,7 +7340,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7339,7 +7354,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7351,7 +7366,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7427,7 +7442,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="2:11">
@@ -7439,7 +7454,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -7461,7 +7476,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -7535,7 +7550,7 @@
         <v>8</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -7559,7 +7574,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7573,7 +7588,7 @@
         <v>149</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7587,19 +7602,19 @@
         <v>19</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="51" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7647,7 +7662,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -7661,21 +7676,21 @@
         <v>28</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -7687,7 +7702,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="2:11">

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="361">
   <si>
     <t>1 … 1</t>
   </si>
@@ -959,9 +964,6 @@
     <t>MedicationAdministration.MedicationReference(Medication)</t>
   </si>
   <si>
-    <t>AfwijkendeToedining</t>
-  </si>
-  <si>
     <t xml:space="preserve">0….1 </t>
   </si>
   <si>
@@ -986,9 +988,6 @@
     <t>geannuleerd indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">    AanvullendeInformatie</t>
-  </si>
-  <si>
     <t>Aanvullende Informatie</t>
   </si>
   <si>
@@ -1101,12 +1100,24 @@
   </si>
   <si>
     <t>Extension removed</t>
+  </si>
+  <si>
+    <t>AfwijkendeToediening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationAdministration.prescription(mp9-ToedieningsAfspraak) </t>
+  </si>
+  <si>
+    <t>Reference(mp9-ToedieningsAfspraak).identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AanvullendeWensen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1198,7 +1209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,6 +1258,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1335,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1450,6 +1473,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1780,7 +1805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1790,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
@@ -2482,7 +2507,7 @@
         <v>52</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2497,7 +2522,7 @@
         <v>52</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2512,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4482,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
@@ -4707,16 +4732,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -4781,16 +4806,16 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -4824,7 +4849,7 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="23" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="38" customFormat="1">
@@ -4839,7 +4864,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -4867,7 +4892,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="2:14" hidden="1" outlineLevel="1">
@@ -5078,7 +5103,7 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="3:11" hidden="1" outlineLevel="2">
@@ -5494,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5559,7 +5584,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5620,7 +5645,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
@@ -5629,7 +5654,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5643,7 +5668,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5655,7 +5680,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="46" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
         <v>205</v>
@@ -5670,7 +5695,7 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5717,7 +5742,7 @@
       <c r="J15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="54" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5730,7 +5755,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5927,7 +5952,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5972,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6013,7 +6038,7 @@
         <v>52</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6076,7 +6101,7 @@
         <v>52</v>
       </c>
       <c r="K43" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6091,7 +6116,7 @@
         <v>52</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6106,7 +6131,7 @@
         <v>52</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6277,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -6359,7 +6384,7 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6509,7 +6534,7 @@
     <row r="74" spans="1:12">
       <c r="A74" s="3"/>
       <c r="B74" s="46" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C74" s="46"/>
       <c r="D74" s="46"/>
@@ -6518,9 +6543,11 @@
       <c r="I74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="4"/>
-      <c r="K74" t="s">
-        <v>200</v>
+      <c r="J74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="53" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -6532,7 +6559,7 @@
         <v>22</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K75" t="s">
         <v>200</v>
@@ -6558,7 +6585,7 @@
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L77" t="s">
         <v>210</v>
@@ -6577,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -6633,7 +6660,7 @@
       </c>
       <c r="L2" s="27"/>
       <c r="M2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6680,7 +6707,7 @@
         <v>216</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6695,7 +6722,7 @@
         <v>204</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6707,10 +6734,10 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7033,10 +7060,10 @@
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>4</v>
@@ -7188,7 +7215,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" outlineLevel="1">
@@ -7312,7 +7339,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -7326,7 +7353,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -7340,7 +7367,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -7354,7 +7381,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -7366,7 +7393,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -7574,7 +7601,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="2:11">
@@ -7588,7 +7615,7 @@
         <v>149</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -7602,7 +7629,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="2:11">
@@ -7614,7 +7641,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -7662,7 +7689,7 @@
         <v>28</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -7681,16 +7708,16 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -7702,7 +7729,7 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="2:11">

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="3"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <sheet name="Verstrekking" sheetId="6" r:id="rId5"/>
     <sheet name="Verstrekkingsverzoek" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="145621" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="377">
   <si>
     <t>1 … 1</t>
   </si>
@@ -1112,12 +1107,60 @@
   </si>
   <si>
     <t xml:space="preserve">    AanvullendeWensen</t>
+  </si>
+  <si>
+    <t>??? Not sure - new</t>
+  </si>
+  <si>
+    <t>MedicationStatement.status</t>
+  </si>
+  <si>
+    <t>mapping ID: 22505</t>
+  </si>
+  <si>
+    <t>ID 22695</t>
+  </si>
+  <si>
+    <t>ID 22696</t>
+  </si>
+  <si>
+    <t>ID 22697</t>
+  </si>
+  <si>
+    <t>ID 22502</t>
+  </si>
+  <si>
+    <t>ID staan in geen enkel profiel</t>
+  </si>
+  <si>
+    <t>ID 22618</t>
+  </si>
+  <si>
+    <t>Kan dit niet vinden</t>
+  </si>
+  <si>
+    <t>22508 </t>
+  </si>
+  <si>
+    <t>Moet deze valueset niet gekoppeld worden? http://decor.nictiz.nl/medicatieproces/mp-html-20170601T173502/voc-2.16.840.1.113883.2.4.3.11.60.20.77.11.35-2017-05-09T103908.html</t>
+  </si>
+  <si>
+    <t>Zou mooi zijn als we dit nog wel verder zouden kunnen specificiren vind je niet?</t>
+  </si>
+  <si>
+    <t>zit nu op .basedOn wat volgens mij correct is.</t>
+  </si>
+  <si>
+    <t>Why binding on required?</t>
+  </si>
+  <si>
+    <t>Is momenteel niet verplicht in het profiel.  Of is dit gewoon het technische ID? Hij staat iig op identifier gemapt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1335,7 +1378,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1470,11 +1513,15 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1805,7 +1852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1815,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1833,16 +1880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -3015,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>
@@ -3032,20 +3079,20 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="57" style="11" customWidth="1"/>
-    <col min="12" max="12" width="61.7109375" customWidth="1"/>
+    <col min="12" max="12" width="166.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -3131,387 +3178,400 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="3" t="s">
-        <v>29</v>
+      <c r="B7" s="56" t="s">
+        <v>97</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>156</v>
+        <v>8</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="L7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="55"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="26" t="s">
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:12">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:12">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>159</v>
-      </c>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>160</v>
+      <c r="K14" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="18" t="s">
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="5" t="s">
+    <row r="17" spans="1:12">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="18" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="18" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="C17" s="5" t="s">
+    <row r="18" spans="1:12">
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="D18" s="5" t="s">
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="18" t="s">
+      <c r="I19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="E19" s="3" t="s">
+    <row r="20" spans="1:12">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="E20" s="3" t="s">
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="D21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="10" t="s">
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="E22" s="3" t="s">
+    <row r="23" spans="1:12">
+      <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="E23" s="3" t="s">
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="3" t="s">
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="I24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="18" t="s">
+      <c r="D25" s="3"/>
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" t="s">
+      <c r="I26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:12">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="I27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:12">
+      <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:12">
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K29" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:12">
+      <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4" t="s">
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="5" t="s">
+      <c r="L30" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="C31" s="3" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="4" t="s">
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K32" s="35" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="3:12">
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K33" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="5" t="s">
+    <row r="34" spans="3:12">
+      <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11">
-      <c r="D34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="3:11">
-      <c r="E35" s="5" t="s">
-        <v>55</v>
+    <row r="35" spans="3:12">
+      <c r="D35" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="3:11">
-      <c r="F36" s="3" t="s">
+      <c r="L35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="E36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="F37" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11">
-      <c r="F37" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>3</v>
@@ -3520,12 +3580,15 @@
         <v>52</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11">
+        <v>292</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
       <c r="F38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>3</v>
@@ -3534,50 +3597,66 @@
         <v>52</v>
       </c>
       <c r="K38" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="F39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="21" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="39" spans="3:11">
-      <c r="F39" s="3" t="s">
+      <c r="L39" s="55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="F40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="11" t="s">
+      <c r="I40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="40" spans="3:11">
-      <c r="F40" s="3" t="s">
+      <c r="L40" s="55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="4" t="s">
+      <c r="I41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K41" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" spans="3:11">
-      <c r="D41" s="5" t="s">
+      <c r="L41" s="55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="D42" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="3:11">
-      <c r="E42" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>3</v>
@@ -3585,9 +3664,9 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11">
-      <c r="F43" s="5" t="s">
-        <v>55</v>
+    <row r="43" spans="3:12">
+      <c r="E43" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>3</v>
@@ -3595,23 +3674,19 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11">
-      <c r="G44" s="3" t="s">
+    <row r="44" spans="3:12">
+      <c r="F44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="G45" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="G45" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>3</v>
@@ -3623,9 +3698,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:12">
       <c r="G46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>3</v>
@@ -3634,222 +3709,228 @@
         <v>52</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="G47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
-      <c r="F47" s="3" t="s">
+    <row r="48" spans="3:12">
+      <c r="F48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="10" t="s">
+      <c r="I48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="10" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="48" spans="3:11">
-      <c r="E48" s="3" t="s">
+      <c r="L48" s="55" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12">
+      <c r="E49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="I49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K49" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="5:11">
-      <c r="E49" s="3" t="s">
+    <row r="50" spans="5:12">
+      <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="4" t="s">
+      <c r="I50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K50" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="5:11">
-      <c r="E50" s="3" t="s">
+    <row r="51" spans="5:12">
+      <c r="E51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="10" t="s">
+      <c r="I51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="5:11">
-      <c r="E51" s="3" t="s">
+    <row r="52" spans="5:12">
+      <c r="E52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K51" s="35" t="s">
+      <c r="I52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="5:11">
-      <c r="E52" s="5" t="s">
+    <row r="53" spans="5:12">
+      <c r="E53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="18" t="s">
+      <c r="I53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="18" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="5:11">
-      <c r="F53" s="5" t="s">
+    <row r="54" spans="5:12">
+      <c r="F54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="5:11">
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="18" t="s">
+      <c r="I54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="5:12">
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="18" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" spans="5:11">
-      <c r="G55" s="3" t="s">
+      <c r="L55" s="55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12">
+      <c r="G56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="4" t="s">
+      <c r="I56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="18" t="s">
+      <c r="K56" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="5:11">
-      <c r="F56" s="5" t="s">
+    <row r="57" spans="5:12">
+      <c r="F57" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="36" t="s">
+      <c r="I57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="5:11">
-      <c r="G57" s="3" t="s">
+    <row r="58" spans="5:12">
+      <c r="G58" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4" t="s">
+      <c r="I58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="5:11">
-      <c r="G58" s="3" t="s">
+    <row r="59" spans="5:12">
+      <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="10" t="s">
+      <c r="I59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="5:11">
-      <c r="G59" s="3" t="s">
+    <row r="60" spans="5:12">
+      <c r="G60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="10" t="s">
+      <c r="I60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="5:11">
-      <c r="E60" s="5" t="s">
+    <row r="61" spans="5:12">
+      <c r="E61" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="10" t="s">
+      <c r="I61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="5:11">
-      <c r="F61" s="5" t="s">
+    <row r="62" spans="5:12">
+      <c r="F62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="5:11">
-      <c r="G62" s="3" t="s">
+      <c r="I62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="5:12">
+      <c r="G63" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="5:11">
-      <c r="G63" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>3</v>
@@ -3858,12 +3939,12 @@
         <v>52</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="5:11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12">
       <c r="G64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>3</v>
@@ -3872,26 +3953,29 @@
         <v>52</v>
       </c>
       <c r="K64" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="G65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="F65" s="3" t="s">
+      <c r="L65" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="F66" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="F66" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>3</v>
@@ -3903,107 +3987,112 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="2:12">
+      <c r="F67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="23" t="s">
+      <c r="I68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="23" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" s="38" customFormat="1">
-      <c r="B68" s="41"/>
-      <c r="C68" s="41" t="s">
+      <c r="L68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" s="38" customFormat="1">
+      <c r="B69" s="41"/>
+      <c r="C69" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="42" t="s">
+      <c r="I69" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K68" s="43" t="s">
+      <c r="K69" s="43" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="5" t="s">
+    <row r="70" spans="2:12">
+      <c r="B70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="23" t="s">
+      <c r="I70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="2:11" s="38" customFormat="1">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41" t="s">
+    <row r="71" spans="2:12" s="38" customFormat="1">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="42" t="s">
+      <c r="I71" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="43" t="s">
+      <c r="K71" s="43" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="2:11" s="38" customFormat="1">
-      <c r="B71" s="38" t="s">
+    <row r="72" spans="2:12" s="38" customFormat="1">
+      <c r="B72" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="42"/>
-      <c r="K71" s="43" t="s">
+      <c r="I72" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="B72" s="5" t="s">
+    <row r="73" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="B73" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="10"/>
-    </row>
-    <row r="73" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C73" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D74" s="3" t="s">
+    <row r="74" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="C74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="D75" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74" s="10"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D75" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>3</v>
@@ -4013,118 +4102,120 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C76" s="5" t="s">
+    <row r="76" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="D76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="C77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2"/>
-      <c r="K76" s="10"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D77" s="3" t="s">
+      <c r="I77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K77" s="10"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I78" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="C79" s="3" t="s">
+    <row r="79" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="D79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1" outlineLevel="2">
+      <c r="C80" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K79" s="10"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1" outlineLevel="2">
-      <c r="B80" s="3" t="s">
+      <c r="I80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="4" t="s">
+      <c r="I81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="B81" s="5" t="s">
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="B82" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
+      <c r="I82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J82" s="14"/>
-      <c r="K82" s="20" t="s">
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D83" s="3" t="s">
+    <row r="84" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="D84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D84" s="5" t="s">
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="D85" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E85" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>0</v>
@@ -4133,20 +4224,18 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2"/>
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F87" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>3</v>
@@ -4157,33 +4246,33 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E88" s="5" t="s">
+      <c r="F88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="E89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="I89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2"/>
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>4</v>
@@ -4191,30 +4280,32 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D91" s="3" t="s">
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="D92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="I91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="D92" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="I92" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="E93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I93" s="2" t="s">
@@ -4224,105 +4315,105 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" hidden="1" outlineLevel="4">
-      <c r="F94" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E94" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="2"/>
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" hidden="1" outlineLevel="4">
       <c r="F95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" hidden="1" outlineLevel="4">
+      <c r="F96" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4" t="s">
+      <c r="I96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" hidden="1" outlineLevel="2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15" t="s">
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" hidden="1" outlineLevel="2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J96" s="16"/>
-      <c r="K96" s="20" t="s">
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="16"/>
+      <c r="K97" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="C97" s="3" t="s">
+    <row r="98" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="C98" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="4" t="s">
+      <c r="I98" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K97" s="10"/>
-    </row>
-    <row r="98" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="C98" s="5" t="s">
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="C99" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="10"/>
-    </row>
-    <row r="99" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="D99" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="I99" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="E100" s="3" t="s">
+    <row r="100" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="D100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="E101" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="10"/>
-    </row>
-    <row r="101" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="E101" s="5" t="s">
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="E102" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="10"/>
-    </row>
-    <row r="102" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="F102" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>0</v>
@@ -4330,21 +4421,19 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G103" s="3" t="s">
+    <row r="103" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="F103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="G104" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K103" s="10"/>
-    </row>
-    <row r="104" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G104" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>3</v>
@@ -4354,65 +4443,67 @@
       </c>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="F105" s="5" t="s">
+    <row r="105" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="G105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="F106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2"/>
-      <c r="K105" s="10"/>
-    </row>
-    <row r="106" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G106" s="3" t="s">
+      <c r="I106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2"/>
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="G107" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K106" s="10"/>
-    </row>
-    <row r="107" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G107" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="I107" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="E108" s="3" t="s">
+    <row r="108" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="G108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="E109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="I108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K108" s="10"/>
-    </row>
-    <row r="109" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="E109" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="2"/>
+      <c r="G109" s="3"/>
+      <c r="I109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="F110" s="5" t="s">
+    <row r="110" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="E110" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -4421,70 +4512,83 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G111" s="3" t="s">
+    <row r="111" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="F111" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J111" s="2"/>
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="1:11" hidden="1" outlineLevel="3">
+      <c r="G112" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I112" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K111" s="10"/>
-    </row>
-    <row r="112" spans="3:11" hidden="1" outlineLevel="3">
-      <c r="G112" s="3" t="s">
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="2:12" hidden="1" outlineLevel="3">
+      <c r="G113" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I112" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K112" s="10"/>
-    </row>
-    <row r="113" spans="2:12" collapsed="1">
-      <c r="B113" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="I113" s="4" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K113" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="L113" s="40"/>
-    </row>
-    <row r="114" spans="2:12">
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="2:12" collapsed="1">
       <c r="B114" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="L114" s="40"/>
     </row>
     <row r="115" spans="2:12">
       <c r="B115" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J115" s="4" t="s">
+      <c r="I116" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K115" s="10" t="s">
+      <c r="K116" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4492,14 +4596,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B69:B70">
+  <conditionalFormatting sqref="B70:B71">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+  <conditionalFormatting sqref="C71">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L48" r:id="rId1" location="_2.16.840.1.113883.2.4.3.11.60.20.77.2.3.22508_20160426110457" tooltip="Link naar dit item" display="http://decor.nictiz.nl/medicatieproces/mp-html-20170601T173502/ds-2.16.840.1.113883.2.4.3.11.60.20.77.1.3-2016-06-01T000000.html - _2.16.840.1.113883.2.4.3.11.60.20.77.2.3.22508_20160426110457"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4507,7 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4529,16 +4636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -5519,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5535,19 +5642,20 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="54.7109375" customWidth="1"/>
+    <col min="12" max="12" width="102.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -5586,6 +5694,9 @@
       <c r="K3" s="46" t="s">
         <v>323</v>
       </c>
+      <c r="L3" s="55" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="3" t="s">
@@ -5742,7 +5853,7 @@
       <c r="J15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="53" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6546,7 +6657,7 @@
       <c r="J74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="53" t="s">
+      <c r="K74" s="52" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6624,16 +6735,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
@@ -7143,16 +7254,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="1" t="s">
         <v>132</v>
       </c>

--- a/Mappings/Medicatie9.xlsx
+++ b/Mappings/Medicatie9.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Nictiz-STU3\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MedicatieAfspraak" sheetId="2" r:id="rId1"/>
@@ -701,9 +706,6 @@
     <t>MedicationDispense.dosageInstructions.timing.repeat.periodUnits</t>
   </si>
   <si>
-    <t>MedicationDispense.dosageInstructions.timing.event</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstructions.timing.repeat.when</t>
   </si>
   <si>
@@ -758,9 +760,6 @@
     <t>MedicationRequest.dosageInstructions.timing.repeat.periodUnits</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstructions.timing.event</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstructions.timing.repeat.when</t>
   </si>
   <si>
@@ -920,9 +919,6 @@
     <t>MedicationStatement.dosageInstructions.timing.repeat.periodUnits</t>
   </si>
   <si>
-    <t>MedicationStatement.dosageInstructions.timing.event</t>
-  </si>
-  <si>
     <t>MedicationStatement.dosageInstructions.timing.dayOfWeek</t>
   </si>
   <si>
@@ -1155,13 +1151,22 @@
   </si>
   <si>
     <t>Is momenteel niet verplicht in het profiel.  Of is dit gewoon het technische ID? Hij staat iig op identifier gemapt</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstructions.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstructions.timing..repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosageInstructions.timing..repeat.timeOfDay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,6 +1255,70 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFE16E22"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF484A4C"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF9C6500"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1378,7 +1447,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1513,15 +1582,62 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1852,7 +1968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1862,11 +1978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="4.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
@@ -1879,7 +1995,7 @@
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -1903,7 +2019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>107</v>
       </c>
@@ -1912,7 +2028,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1923,10 +2039,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
@@ -1937,10 +2053,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1951,10 +2067,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1965,10 +2081,10 @@
         <v>31</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1979,10 +2095,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
@@ -1993,10 +2109,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
@@ -2007,10 +2123,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>98</v>
       </c>
@@ -2019,10 +2135,10 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" outlineLevel="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>78</v>
       </c>
@@ -2032,7 +2148,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2044,7 +2160,7 @@
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5" t="s">
         <v>80</v>
       </c>
@@ -2054,7 +2170,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
@@ -2064,7 +2180,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2192,7 @@
       </c>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2088,7 +2204,7 @@
       </c>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="17" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +2214,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="18" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="18" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2226,7 @@
       </c>
       <c r="K18" s="25"/>
     </row>
-    <row r="19" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="19" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G19" s="3" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2238,7 @@
       </c>
       <c r="K19" s="25"/>
     </row>
-    <row r="20" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="20" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2250,7 @@
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="21" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
@@ -2144,7 +2260,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="22" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
         <v>82</v>
       </c>
@@ -2154,7 +2270,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="23" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>83</v>
       </c>
@@ -2166,7 +2282,7 @@
       </c>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="24" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>84</v>
       </c>
@@ -2178,7 +2294,7 @@
       </c>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="2:11" collapsed="1">
+    <row r="25" spans="2:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2189,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>100</v>
       </c>
@@ -2201,10 +2317,10 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -2219,7 +2335,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
         <v>36</v>
@@ -2230,7 +2346,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="D29" s="3" t="s">
         <v>37</v>
@@ -2245,7 +2361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="D30" s="3" t="s">
         <v>27</v>
@@ -2260,7 +2376,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>38</v>
@@ -2272,10 +2388,10 @@
         <v>8</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="5" t="s">
         <v>39</v>
@@ -2285,10 +2401,10 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="D33" s="5" t="s">
         <v>40</v>
@@ -2299,7 +2415,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="E34" s="5" t="s">
         <v>41</v>
@@ -2309,10 +2425,10 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="F35" s="3" t="s">
         <v>42</v>
@@ -2325,7 +2441,7 @@
       </c>
       <c r="K35" s="18"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>43</v>
@@ -2338,7 +2454,7 @@
       </c>
       <c r="K36" s="18"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="E37" s="5" t="s">
         <v>44</v>
@@ -2351,7 +2467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="F38" s="3" t="s">
         <v>42</v>
@@ -2364,7 +2480,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="F39" s="3" t="s">
         <v>43</v>
@@ -2377,7 +2493,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="D40" s="3" t="s">
         <v>45</v>
@@ -2389,10 +2505,10 @@
         <v>8</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
         <v>46</v>
@@ -2402,10 +2518,10 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>27</v>
@@ -2417,10 +2533,10 @@
         <v>4</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -2432,10 +2548,10 @@
         <v>8</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -2447,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>49</v>
@@ -2462,10 +2578,10 @@
         <v>31</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="C46" s="5" t="s">
         <v>50</v>
@@ -2476,7 +2592,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>51</v>
@@ -2488,13 +2604,13 @@
         <v>52</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="D48" s="3" t="s">
         <v>53</v>
@@ -2506,10 +2622,10 @@
         <v>31</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="D49" s="5" t="s">
         <v>94</v>
@@ -2520,7 +2636,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="E50" s="5" t="s">
         <v>54</v>
@@ -2531,7 +2647,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="F51" s="5" t="s">
         <v>55</v>
@@ -2542,7 +2658,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="G52" s="3" t="s">
         <v>56</v>
@@ -2554,10 +2670,10 @@
         <v>52</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="G53" s="3" t="s">
         <v>57</v>
@@ -2569,10 +2685,10 @@
         <v>52</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="G54" s="3" t="s">
         <v>58</v>
@@ -2584,10 +2700,10 @@
         <v>52</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="F55" s="3" t="s">
         <v>43</v>
@@ -2602,7 +2718,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="E56" s="5" t="s">
         <v>60</v>
@@ -2613,7 +2729,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="F57" s="5" t="s">
         <v>61</v>
@@ -2624,7 +2740,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="G58" s="5" t="s">
         <v>55</v>
@@ -2635,7 +2751,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="H59" s="3" t="s">
         <v>56</v>
@@ -2647,10 +2763,10 @@
         <v>52</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="H60" s="3" t="s">
         <v>57</v>
@@ -2662,10 +2778,10 @@
         <v>52</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="H61" s="3" t="s">
         <v>58</v>
@@ -2677,10 +2793,10 @@
         <v>52</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="G62" s="3" t="s">
         <v>62</v>
@@ -2692,10 +2808,10 @@
         <v>8</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="G63" s="3" t="s">
         <v>63</v>
@@ -2707,10 +2823,10 @@
         <v>31</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="G64" s="3" t="s">
         <v>64</v>
@@ -2722,10 +2838,10 @@
         <v>19</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="G65" s="3" t="s">
         <v>65</v>
@@ -2737,10 +2853,10 @@
         <v>8</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="G66" s="3" t="s">
         <v>66</v>
@@ -2752,10 +2868,10 @@
         <v>8</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="F67" s="5" t="s">
         <v>67</v>
@@ -2765,10 +2881,10 @@
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="G68" s="5" t="s">
         <v>68</v>
@@ -2779,7 +2895,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="H69" s="3" t="s">
         <v>8</v>
@@ -2791,10 +2907,10 @@
         <v>8</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="H70" s="3" t="s">
         <v>27</v>
@@ -2806,10 +2922,10 @@
         <v>4</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="G71" s="5" t="s">
         <v>93</v>
@@ -2819,10 +2935,10 @@
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="H72" s="3" t="s">
         <v>52</v>
@@ -2834,10 +2950,10 @@
         <v>31</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="H73" s="3" t="s">
         <v>43</v>
@@ -2849,10 +2965,10 @@
         <v>8</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="H74" s="3" t="s">
         <v>62</v>
@@ -2864,10 +2980,10 @@
         <v>8</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="F75" s="5" t="s">
         <v>69</v>
@@ -2877,10 +2993,10 @@
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="G76" s="5" t="s">
         <v>70</v>
@@ -2891,7 +3007,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="H77" s="3" t="s">
         <v>56</v>
@@ -2903,10 +3019,10 @@
         <v>52</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="H78" s="3" t="s">
         <v>57</v>
@@ -2918,10 +3034,10 @@
         <v>52</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="H79" s="3" t="s">
         <v>58</v>
@@ -2933,10 +3049,10 @@
         <v>52</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="G80" s="3" t="s">
         <v>43</v>
@@ -2951,7 +3067,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G81" s="3" t="s">
         <v>62</v>
       </c>
@@ -2965,7 +3081,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>101</v>
       </c>
@@ -2974,10 +3090,10 @@
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
         <v>102</v>
@@ -2989,7 +3105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
         <v>103</v>
@@ -3001,7 +3117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>104</v>
       </c>
@@ -3010,10 +3126,10 @@
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
         <v>105</v>
@@ -3025,7 +3141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
         <v>106</v>
@@ -3037,7 +3153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>90</v>
       </c>
@@ -3048,7 +3164,7 @@
         <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3064,11 +3180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -3082,7 +3198,7 @@
     <col min="12" max="12" width="166.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -3106,7 +3222,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -3157,13 +3273,13 @@
         <v>21</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
@@ -3177,8 +3293,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="56" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="53" t="s">
         <v>97</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -3188,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -3208,7 +3324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -3221,9 +3337,9 @@
       <c r="K9" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="55"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3237,7 +3353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -3246,10 +3362,10 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3263,7 +3379,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3273,7 +3389,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3287,7 +3403,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +3417,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
@@ -3312,10 +3428,10 @@
         <v>8</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
@@ -3324,10 +3440,10 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
@@ -3337,7 +3453,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
@@ -3346,10 +3462,10 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
@@ -3361,7 +3477,7 @@
       </c>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
@@ -3373,7 +3489,7 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
@@ -3385,7 +3501,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3397,7 +3513,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
@@ -3409,7 +3525,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
@@ -3421,10 +3537,10 @@
         <v>8</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -3433,10 +3549,10 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3447,10 +3563,10 @@
         <v>4</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
@@ -3461,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
@@ -3475,10 +3591,10 @@
         <v>4</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>49</v>
       </c>
@@ -3489,13 +3605,13 @@
         <v>31</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="L30" s="55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>287</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
@@ -3505,7 +3621,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
@@ -3516,10 +3632,10 @@
         <v>52</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
@@ -3530,10 +3646,10 @@
         <v>31</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
@@ -3543,7 +3659,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>54</v>
       </c>
@@ -3553,10 +3669,10 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E36" s="5" t="s">
         <v>55</v>
       </c>
@@ -3565,11 +3681,11 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="55" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12">
+      <c r="L36" s="52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F37" s="3" t="s">
         <v>56</v>
       </c>
@@ -3580,13 +3696,13 @@
         <v>52</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12">
+        <v>290</v>
+      </c>
+      <c r="L37" s="52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F38" s="3" t="s">
         <v>57</v>
       </c>
@@ -3597,13 +3713,13 @@
         <v>52</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
+        <v>291</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F39" s="3" t="s">
         <v>58</v>
       </c>
@@ -3614,13 +3730,13 @@
         <v>52</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12">
+        <v>292</v>
+      </c>
+      <c r="L39" s="52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F40" s="3" t="s">
         <v>43</v>
       </c>
@@ -3631,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12">
+        <v>275</v>
+      </c>
+      <c r="L40" s="52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
@@ -3650,11 +3766,11 @@
       <c r="K41" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="L41" s="55" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12">
+      <c r="L41" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D42" s="5" t="s">
         <v>60</v>
       </c>
@@ -3664,7 +3780,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E43" s="5" t="s">
         <v>61</v>
       </c>
@@ -3674,7 +3790,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="s">
         <v>55</v>
       </c>
@@ -3684,7 +3800,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G45" s="3" t="s">
         <v>56</v>
       </c>
@@ -3695,10 +3811,10 @@
         <v>52</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G46" s="3" t="s">
         <v>57</v>
       </c>
@@ -3709,10 +3825,10 @@
         <v>52</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G47" s="3" t="s">
         <v>58</v>
       </c>
@@ -3723,10 +3839,10 @@
         <v>52</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="F48" s="3" t="s">
         <v>62</v>
       </c>
@@ -3737,13 +3853,13 @@
         <v>8</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="L48" s="55" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12">
+        <v>295</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49" s="3" t="s">
         <v>63</v>
       </c>
@@ -3754,10 +3870,10 @@
         <v>31</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
@@ -3768,10 +3884,10 @@
         <v>19</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="3" t="s">
         <v>65</v>
       </c>
@@ -3782,10 +3898,10 @@
         <v>8</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="3" t="s">
         <v>66</v>
       </c>
@@ -3796,10 +3912,10 @@
         <v>8</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="5" t="s">
         <v>67</v>
       </c>
@@ -3808,10 +3924,10 @@
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="5:12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F54" s="5" t="s">
         <v>68</v>
       </c>
@@ -3821,7 +3937,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="5:12">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G55" s="3" t="s">
         <v>8</v>
       </c>
@@ -3832,13 +3948,13 @@
         <v>8</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="L55" s="55" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="5:12">
+        <v>299</v>
+      </c>
+      <c r="L55" s="52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3849,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="5:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F57" s="5" t="s">
         <v>93</v>
       </c>
@@ -3861,10 +3977,10 @@
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G58" s="3" t="s">
         <v>52</v>
       </c>
@@ -3875,10 +3991,10 @@
         <v>31</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="5:12">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G59" s="3" t="s">
         <v>43</v>
       </c>
@@ -3889,10 +4005,10 @@
         <v>8</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="5:12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G60" s="3" t="s">
         <v>62</v>
       </c>
@@ -3903,10 +4019,10 @@
         <v>8</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="5:12">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="5" t="s">
         <v>69</v>
       </c>
@@ -3915,10 +4031,10 @@
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="5:12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F62" s="5" t="s">
         <v>70</v>
       </c>
@@ -3928,7 +4044,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="5:12">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G63" s="3" t="s">
         <v>56</v>
       </c>
@@ -3939,10 +4055,10 @@
         <v>52</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="5:12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G64" s="3" t="s">
         <v>57</v>
       </c>
@@ -3953,10 +4069,10 @@
         <v>52</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G65" s="3" t="s">
         <v>58</v>
       </c>
@@ -3967,13 +4083,13 @@
         <v>52</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F66" s="3" t="s">
         <v>43</v>
       </c>
@@ -3987,7 +4103,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F67" s="3" t="s">
         <v>62</v>
       </c>
@@ -4001,7 +4117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
@@ -4010,13 +4126,13 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L68" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" s="38" customFormat="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="41"/>
       <c r="C69" s="41" t="s">
         <v>17</v>
@@ -4028,10 +4144,10 @@
         <v>17</v>
       </c>
       <c r="K69" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>72</v>
       </c>
@@ -4040,10 +4156,10 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" s="38" customFormat="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="41"/>
       <c r="C71" s="41" t="s">
         <v>17</v>
@@ -4055,10 +4171,10 @@
         <v>17</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" s="38" customFormat="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="38" t="s">
         <v>73</v>
       </c>
@@ -4067,10 +4183,10 @@
       </c>
       <c r="J72" s="42"/>
       <c r="K72" s="43" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" hidden="1" outlineLevel="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>74</v>
       </c>
@@ -4080,7 +4196,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="74" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
         <v>1</v>
       </c>
@@ -4090,7 +4206,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="75" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D75" s="3" t="s">
         <v>2</v>
       </c>
@@ -4102,7 +4218,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="76" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4114,7 +4230,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="77" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4240,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="78" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4252,7 @@
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="79" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D79" s="3" t="s">
         <v>11</v>
       </c>
@@ -4148,7 +4264,7 @@
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="2:12" hidden="1" outlineLevel="2">
+    <row r="80" spans="2:12" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="C80" s="3" t="s">
         <v>75</v>
       </c>
@@ -4160,7 +4276,7 @@
       </c>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" hidden="1" outlineLevel="2">
+    <row r="81" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
@@ -4172,7 +4288,7 @@
       </c>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" hidden="1" outlineLevel="2">
+    <row r="82" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>77</v>
       </c>
@@ -4182,7 +4298,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" hidden="1" outlineLevel="2">
+    <row r="83" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
@@ -4201,7 +4317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="84" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="D84" s="3" t="s">
         <v>79</v>
       </c>
@@ -4213,7 +4329,7 @@
       </c>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="85" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="D85" s="5" t="s">
         <v>80</v>
       </c>
@@ -4223,7 +4339,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="86" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="E86" s="5" t="s">
         <v>1</v>
       </c>
@@ -4233,7 +4349,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="87" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F87" s="3" t="s">
         <v>2</v>
       </c>
@@ -4245,7 +4361,7 @@
       </c>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="88" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F88" s="3" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4373,7 @@
       </c>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="89" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="E89" s="5" t="s">
         <v>9</v>
       </c>
@@ -4267,7 +4383,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="90" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F90" s="3" t="s">
         <v>10</v>
       </c>
@@ -4279,7 +4395,7 @@
       </c>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="91" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
@@ -4291,7 +4407,7 @@
       </c>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="92" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="D92" s="3" t="s">
         <v>81</v>
       </c>
@@ -4304,7 +4420,7 @@
       </c>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="93" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="D93" s="5" t="s">
         <v>82</v>
       </c>
@@ -4314,7 +4430,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="94" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="E94" s="5" t="s">
         <v>82</v>
       </c>
@@ -4324,7 +4440,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="95" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F95" s="3" t="s">
         <v>83</v>
       </c>
@@ -4336,7 +4452,7 @@
       </c>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" hidden="1" outlineLevel="4">
+    <row r="96" spans="1:11" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="F96" s="3" t="s">
         <v>84</v>
       </c>
@@ -4348,7 +4464,7 @@
       </c>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" hidden="1" outlineLevel="2">
+    <row r="97" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
         <v>85</v>
@@ -4367,7 +4483,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="98" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
         <v>86</v>
       </c>
@@ -4379,7 +4495,7 @@
       </c>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="99" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
         <v>87</v>
       </c>
@@ -4389,7 +4505,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="100" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="D100" s="5" t="s">
         <v>78</v>
       </c>
@@ -4399,7 +4515,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="101" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="E101" s="3" t="s">
         <v>79</v>
       </c>
@@ -4411,7 +4527,7 @@
       </c>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="102" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="E102" s="5" t="s">
         <v>80</v>
       </c>
@@ -4421,7 +4537,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="103" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F103" s="5" t="s">
         <v>1</v>
       </c>
@@ -4431,7 +4547,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="104" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G104" s="3" t="s">
         <v>2</v>
       </c>
@@ -4443,7 +4559,7 @@
       </c>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="105" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G105" s="3" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4571,7 @@
       </c>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="106" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F106" s="5" t="s">
         <v>9</v>
       </c>
@@ -4465,7 +4581,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="107" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G107" s="3" t="s">
         <v>10</v>
       </c>
@@ -4477,7 +4593,7 @@
       </c>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="108" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G108" s="3" t="s">
         <v>11</v>
       </c>
@@ -4489,7 +4605,7 @@
       </c>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="109" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="E109" s="3" t="s">
         <v>81</v>
       </c>
@@ -4502,7 +4618,7 @@
       </c>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="110" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="E110" s="5" t="s">
         <v>82</v>
       </c>
@@ -4512,7 +4628,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="111" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="F111" s="5" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4638,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" outlineLevel="3">
+    <row r="112" spans="1:11" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G112" s="3" t="s">
         <v>83</v>
       </c>
@@ -4534,7 +4650,7 @@
       </c>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="2:12" hidden="1" outlineLevel="3">
+    <row r="113" spans="2:12" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="G113" s="3" t="s">
         <v>84</v>
       </c>
@@ -4546,7 +4662,7 @@
       </c>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="2:12" collapsed="1">
+    <row r="114" spans="2:12" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>88</v>
       </c>
@@ -4557,11 +4673,11 @@
         <v>4</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L114" s="40"/>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
         <v>89</v>
       </c>
@@ -4575,10 +4691,10 @@
         <v>166</v>
       </c>
       <c r="L115" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
         <v>90</v>
       </c>
@@ -4618,7 +4734,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
@@ -4635,7 +4751,7 @@
     <col min="14" max="14" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -4659,7 +4775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>108</v>
       </c>
@@ -4671,7 +4787,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>109</v>
       </c>
@@ -4681,7 +4797,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>34</v>
       </c>
@@ -4690,10 +4806,10 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="13.9" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
@@ -4707,7 +4823,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
@@ -4717,7 +4833,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.6" customHeight="1">
+    <row r="7" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4847,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.45" customHeight="1">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
@@ -4746,7 +4862,7 @@
       </c>
       <c r="L8" s="44"/>
     </row>
-    <row r="9" spans="1:14" ht="13.15" customHeight="1">
+    <row r="9" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
@@ -4757,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
@@ -4769,10 +4885,10 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
@@ -4781,10 +4897,10 @@
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="6" t="s">
         <v>110</v>
       </c>
@@ -4793,7 +4909,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="13.9" customHeight="1">
+    <row r="13" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="6" t="s">
         <v>111</v>
       </c>
@@ -4803,7 +4919,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" customHeight="1">
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
@@ -4814,10 +4930,10 @@
         <v>8</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
@@ -4837,21 +4953,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>113</v>
       </c>
@@ -4871,7 +4987,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>114</v>
       </c>
@@ -4891,7 +5007,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>115</v>
       </c>
@@ -4911,23 +5027,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
@@ -4947,7 +5063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4956,10 +5072,10 @@
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="23" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="38" customFormat="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="41" t="s">
         <v>17</v>
@@ -4971,10 +5087,10 @@
         <v>17</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
@@ -4990,7 +5106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
@@ -4999,10 +5115,10 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" hidden="1" outlineLevel="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>79</v>
@@ -5015,7 +5131,7 @@
       </c>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="27" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
         <v>80</v>
@@ -5026,7 +5142,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="28" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="E28" s="5" t="s">
         <v>1</v>
@@ -5037,7 +5153,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="29" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>2</v>
@@ -5050,7 +5166,7 @@
       </c>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="30" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>5</v>
@@ -5063,7 +5179,7 @@
       </c>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="31" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>6</v>
@@ -5076,7 +5192,7 @@
       </c>
       <c r="K31" s="25"/>
     </row>
-    <row r="32" spans="2:14" hidden="1" outlineLevel="1">
+    <row r="32" spans="2:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>7</v>
@@ -5089,7 +5205,7 @@
       </c>
       <c r="K32" s="25"/>
     </row>
-    <row r="33" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="33" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
@@ -5099,7 +5215,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="25"/>
     </row>
-    <row r="34" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="34" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
@@ -5111,7 +5227,7 @@
       </c>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="35" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
@@ -5123,7 +5239,7 @@
       </c>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="36" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E36" s="5" t="s">
         <v>12</v>
       </c>
@@ -5133,7 +5249,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="37" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
@@ -5145,7 +5261,7 @@
       </c>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="38" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5273,7 @@
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="39" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D39" s="5" t="s">
         <v>82</v>
       </c>
@@ -5167,7 +5283,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="40" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="s">
         <v>82</v>
       </c>
@@ -5177,7 +5293,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="25"/>
     </row>
-    <row r="41" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="41" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F41" s="3" t="s">
         <v>83</v>
       </c>
@@ -5189,7 +5305,7 @@
       </c>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="3:11" hidden="1" outlineLevel="1">
+    <row r="42" spans="3:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
@@ -5201,7 +5317,7 @@
       </c>
       <c r="K42" s="25"/>
     </row>
-    <row r="43" spans="3:11" ht="15" customHeight="1" collapsed="1">
+    <row r="43" spans="3:11" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>118</v>
       </c>
@@ -5210,10 +5326,10 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="25" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" hidden="1" outlineLevel="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D44" s="5" t="s">
         <v>1</v>
       </c>
@@ -5223,7 +5339,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="25"/>
     </row>
-    <row r="45" spans="3:11" hidden="1" outlineLevel="2">
+    <row r="45" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5235,7 +5351,7 @@
       </c>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="3:11" hidden="1" outlineLevel="2">
+    <row r="46" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
         <v>5</v>
       </c>
@@ -5247,7 +5363,7 @@
       </c>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="3:11" hidden="1" outlineLevel="2">
+    <row r="47" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E47" s="3" t="s">
         <v>6</v>
       </c>
@@ -5259,7 +5375,7 @@
       </c>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" spans="3:11" hidden="1" outlineLevel="2">
+    <row r="48" spans="3:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
@@ -5271,7 +5387,7 @@
       </c>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="49" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E49" s="5" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5397,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="50" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F50" s="3" t="s">
         <v>10</v>
       </c>
@@ -5293,7 +5409,7 @@
       </c>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="51" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="F51" s="3" t="s">
         <v>11</v>
       </c>
@@ -5305,7 +5421,7 @@
       </c>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="52" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
@@ -5315,7 +5431,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="25"/>
     </row>
-    <row r="53" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="53" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E53" s="3" t="s">
         <v>13</v>
       </c>
@@ -5327,7 +5443,7 @@
       </c>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="54" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="E54" s="3" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5455,7 @@
       </c>
       <c r="K54" s="25"/>
     </row>
-    <row r="55" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="55" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>15</v>
       </c>
@@ -5351,7 +5467,7 @@
       </c>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="56" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
         <v>18</v>
       </c>
@@ -5363,7 +5479,7 @@
       </c>
       <c r="K56" s="25"/>
     </row>
-    <row r="57" spans="4:11" hidden="1" outlineLevel="2">
+    <row r="57" spans="4:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
@@ -5375,7 +5491,7 @@
       </c>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" spans="4:11" ht="12.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="58" spans="4:11" ht="12.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D58" s="5" t="s">
         <v>119</v>
       </c>
@@ -5385,7 +5501,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="25"/>
     </row>
-    <row r="59" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="59" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E59" s="5" t="s">
         <v>120</v>
       </c>
@@ -5395,7 +5511,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="25"/>
     </row>
-    <row r="60" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="60" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F60" s="5" t="s">
         <v>1</v>
       </c>
@@ -5405,7 +5521,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="25"/>
     </row>
-    <row r="61" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="61" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G61" s="3" t="s">
         <v>2</v>
       </c>
@@ -5417,7 +5533,7 @@
       </c>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="62" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +5545,7 @@
       </c>
       <c r="K62" s="25"/>
     </row>
-    <row r="63" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="63" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G63" s="3" t="s">
         <v>6</v>
       </c>
@@ -5441,7 +5557,7 @@
       </c>
       <c r="K63" s="25"/>
     </row>
-    <row r="64" spans="4:11" hidden="1" outlineLevel="1">
+    <row r="64" spans="4:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G64" s="3" t="s">
         <v>7</v>
       </c>
@@ -5453,7 +5569,7 @@
       </c>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="65" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F65" s="5" t="s">
         <v>9</v>
       </c>
@@ -5463,7 +5579,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="25"/>
     </row>
-    <row r="66" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="66" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
@@ -5475,7 +5591,7 @@
       </c>
       <c r="K66" s="25"/>
     </row>
-    <row r="67" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="67" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G67" s="3" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5603,7 @@
       </c>
       <c r="K67" s="25"/>
     </row>
-    <row r="68" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="68" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F68" s="5" t="s">
         <v>12</v>
       </c>
@@ -5497,7 +5613,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="25"/>
     </row>
-    <row r="69" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="69" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G69" s="3" t="s">
         <v>13</v>
       </c>
@@ -5509,7 +5625,7 @@
       </c>
       <c r="K69" s="25"/>
     </row>
-    <row r="70" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="70" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
@@ -5521,7 +5637,7 @@
       </c>
       <c r="K70" s="25"/>
     </row>
-    <row r="71" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="71" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E71" s="5" t="s">
         <v>121</v>
       </c>
@@ -5531,7 +5647,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="25"/>
     </row>
-    <row r="72" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="72" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F72" s="5" t="s">
         <v>122</v>
       </c>
@@ -5541,7 +5657,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="25"/>
     </row>
-    <row r="73" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="73" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G73" s="3" t="s">
         <v>123</v>
       </c>
@@ -5553,7 +5669,7 @@
       </c>
       <c r="K73" s="25"/>
     </row>
-    <row r="74" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="74" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G74" s="3" t="s">
         <v>124</v>
       </c>
@@ -5565,7 +5681,7 @@
       </c>
       <c r="K74" s="25"/>
     </row>
-    <row r="75" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="75" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F75" s="5" t="s">
         <v>125</v>
       </c>
@@ -5575,7 +5691,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="25"/>
     </row>
-    <row r="76" spans="2:11" hidden="1" outlineLevel="1">
+    <row r="76" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G76" s="3" t="s">
         <v>126</v>
       </c>
@@ -5587,7 +5703,7 @@
       </c>
       <c r="K76" s="25"/>
     </row>
-    <row r="77" spans="2:11" ht="0.6" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="77" spans="2:11" ht="0.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G77" s="3" t="s">
         <v>127</v>
       </c>
@@ -5599,7 +5715,7 @@
       </c>
       <c r="K77" s="25"/>
     </row>
-    <row r="78" spans="2:11" collapsed="1">
+    <row r="78" spans="2:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>90</v>
       </c>
@@ -5626,1079 +5742,1081 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="102.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="5" style="57" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="57" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="57"/>
+    <col min="10" max="10" width="12.42578125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" style="57" customWidth="1"/>
+    <col min="12" max="12" width="102.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="60"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="60"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="68"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="68"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="70"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="70"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="C33" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="C34" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="C35" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="C36" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="C37" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="D38" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="D39" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="D40" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="E41" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="58"/>
+      <c r="F42" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="G43" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="G44" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="72" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="G45" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="G46" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="G47" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="E48" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="F49" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="G50" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="H51" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="L51" s="57" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="H52" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="H53" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="H54" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="H55" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="H56" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="H57" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="H58" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="F59" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="59"/>
+      <c r="K59" s="68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="G60" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="H61" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="H62" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="G63" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J63" s="59"/>
+      <c r="K63" s="74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="H64" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="H65" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="H66" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
+      <c r="F67" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="59"/>
+      <c r="K67" s="70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="G68" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="H69" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="61"/>
+      <c r="H70" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="H71" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" s="70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="G72" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="G73" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="G74" s="61"/>
+      <c r="I74" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="59"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C77" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="L3" s="55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="L10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="E13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="D19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="E22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="F25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="G26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="G29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="G30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="E31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="5"/>
-      <c r="F49" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="3"/>
-      <c r="H54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="3"/>
-      <c r="H56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="3"/>
-      <c r="H57" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="3"/>
-      <c r="H58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="3"/>
-      <c r="H65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="3"/>
-      <c r="H66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="5"/>
-      <c r="G68" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="3"/>
-      <c r="G72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="3"/>
-      <c r="B74" s="46" t="s">
-        <v>360</v>
-      </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="G74" s="3"/>
-      <c r="I74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K74" s="52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="B76" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" t="s">
-        <v>326</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="L77" s="57" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6715,11 +6833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
@@ -6734,7 +6852,7 @@
     <col min="12" max="12" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" customHeight="1">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -6758,7 +6876,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>133</v>
       </c>
@@ -6771,10 +6889,10 @@
       </c>
       <c r="L2" s="27"/>
       <c r="M2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +6907,7 @@
       </c>
       <c r="L3" s="27"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
@@ -6804,7 +6922,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>135</v>
       </c>
@@ -6818,10 +6936,10 @@
         <v>216</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>129</v>
       </c>
@@ -6833,10 +6951,10 @@
         <v>204</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
@@ -6845,13 +6963,13 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>83</v>
       </c>
@@ -6865,7 +6983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>84</v>
       </c>
@@ -6879,7 +6997,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>136</v>
       </c>
@@ -6891,7 +7009,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
@@ -6905,7 +7023,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
@@ -6919,7 +7037,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>137</v>
       </c>
@@ -6929,7 +7047,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:13" outlineLevel="1">
+    <row r="14" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
@@ -6941,7 +7059,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:13" outlineLevel="1">
+    <row r="15" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
@@ -6955,7 +7073,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:13" outlineLevel="1">
+    <row r="16" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
@@ -6965,7 +7083,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="2:12" outlineLevel="1">
+    <row r="17" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
@@ -6979,7 +7097,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="2:12" outlineLevel="1">
+    <row r="18" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
@@ -6993,7 +7111,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="2:12" outlineLevel="1">
+    <row r="19" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
@@ -7007,7 +7125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:12" outlineLevel="1">
+    <row r="20" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
@@ -7019,7 +7137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:12" outlineLevel="1">
+    <row r="21" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
@@ -7029,7 +7147,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="2:12" outlineLevel="1">
+    <row r="22" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G22" s="5" t="s">
         <v>41</v>
       </c>
@@ -7041,7 +7159,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="2:12" outlineLevel="1">
+    <row r="23" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="H23" s="3" t="s">
         <v>42</v>
       </c>
@@ -7055,7 +7173,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="2:12" outlineLevel="1">
+    <row r="24" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="H24" s="3" t="s">
         <v>43</v>
       </c>
@@ -7069,7 +7187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:12" outlineLevel="1">
+    <row r="25" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="s">
         <v>44</v>
       </c>
@@ -7081,7 +7199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:12" outlineLevel="1">
+    <row r="26" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="H26" s="3" t="s">
         <v>42</v>
       </c>
@@ -7095,7 +7213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:12" outlineLevel="1">
+    <row r="27" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
         <v>43</v>
       </c>
@@ -7109,7 +7227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:12" outlineLevel="1">
+    <row r="28" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="G28" s="3" t="s">
         <v>45</v>
       </c>
@@ -7123,7 +7241,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>138</v>
       </c>
@@ -7138,7 +7256,7 @@
       </c>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>139</v>
       </c>
@@ -7152,7 +7270,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>140</v>
       </c>
@@ -7169,12 +7287,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>4</v>
@@ -7184,7 +7302,7 @@
       </c>
       <c r="L32" s="47"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>90</v>
       </c>
@@ -7198,7 +7316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>141</v>
       </c>
@@ -7210,7 +7328,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>17</v>
       </c>
@@ -7237,11 +7355,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
@@ -7253,7 +7371,7 @@
     <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>152</v>
       </c>
@@ -7277,7 +7395,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
@@ -7286,10 +7404,10 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -7300,10 +7418,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>134</v>
       </c>
@@ -7314,10 +7432,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
@@ -7326,10 +7444,10 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" outlineLevel="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>78</v>
       </c>
@@ -7339,7 +7457,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="25"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>79</v>
       </c>
@@ -7351,7 +7469,7 @@
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>80</v>
       </c>
@@ -7361,7 +7479,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
@@ -7371,7 +7489,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
@@ -7383,7 +7501,7 @@
       </c>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
@@ -7395,7 +7513,7 @@
       </c>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
@@ -7405,7 +7523,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
@@ -7417,7 +7535,7 @@
       </c>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
@@ -7429,7 +7547,7 @@
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>81</v>
       </c>
@@ -7441,7 +7559,7 @@
       </c>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="1:12" collapsed="1">
+    <row r="16" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>143</v>
       </c>
@@ -7450,10 +7568,10 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
@@ -7464,10 +7582,10 @@
         <v>31</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
@@ -7478,10 +7596,10 @@
         <v>8</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>144</v>
       </c>
@@ -7492,10 +7610,10 @@
         <v>52</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>145</v>
       </c>
@@ -7504,10 +7622,10 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
@@ -7517,7 +7635,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>35</v>
       </c>
@@ -7531,7 +7649,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" s="5" t="s">
         <v>36</v>
       </c>
@@ -7541,7 +7659,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
@@ -7555,7 +7673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
         <v>27</v>
       </c>
@@ -7569,7 +7687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="s">
         <v>38</v>
       </c>
@@ -7580,10 +7698,10 @@
         <v>8</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
@@ -7592,10 +7710,10 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E28" s="5" t="s">
         <v>40</v>
       </c>
@@ -7605,7 +7723,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F29" s="5" t="s">
         <v>41</v>
       </c>
@@ -7614,10 +7732,10 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G30" s="3" t="s">
         <v>42</v>
       </c>
@@ -7629,7 +7747,7 @@
       </c>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G31" s="3" t="s">
         <v>43</v>
       </c>
@@ -7641,7 +7759,7 @@
       </c>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F32" s="5" t="s">
         <v>44</v>
       </c>
@@ -7653,7 +7771,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G33" s="3" t="s">
         <v>42</v>
       </c>
@@ -7665,7 +7783,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
         <v>43</v>
       </c>
@@ -7677,7 +7795,7 @@
       </c>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E35" s="3" t="s">
         <v>45</v>
       </c>
@@ -7688,10 +7806,10 @@
         <v>8</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>146</v>
       </c>
@@ -7701,7 +7819,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>147</v>
       </c>
@@ -7712,10 +7830,10 @@
         <v>19</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>148</v>
       </c>
@@ -7726,10 +7844,10 @@
         <v>149</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>150</v>
       </c>
@@ -7740,10 +7858,10 @@
         <v>19</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>215</v>
       </c>
@@ -7752,10 +7870,10 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>82</v>
       </c>
@@ -7765,7 +7883,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
@@ -7777,7 +7895,7 @@
       </c>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>84</v>
       </c>
@@ -7789,7 +7907,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>139</v>
       </c>
@@ -7800,10 +7918,10 @@
         <v>28</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
@@ -7814,24 +7932,24 @@
         <v>28</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>131</v>
       </c>
@@ -7840,10 +7958,10 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>17</v>
       </c>
